--- a/Atividade 2 - Lista de variáveis_A.xlsx
+++ b/Atividade 2 - Lista de variáveis_A.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="15156" windowHeight="7992" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="15156" windowHeight="7992" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="View" sheetId="7" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="37">
   <si>
     <t>Class</t>
   </si>
@@ -33,258 +33,12 @@
     <t>Comment</t>
   </si>
   <si>
-    <t>Barber</t>
-  </si>
-  <si>
-    <t>Barbeiro</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> // Constant that receives a invalid name of a barber</t>
-  </si>
-  <si>
-    <t>// Constant that receives a blank name of a barber</t>
-  </si>
-  <si>
-    <t>// Constant that receives a invalid telephone of a barber</t>
-  </si>
-  <si>
-    <t>// Constant that receives a blank telephone of a barber</t>
-  </si>
-  <si>
-    <t>// Constant that receives a invalid chair of a barber</t>
-  </si>
-  <si>
-    <t>// Constant that receives a blank chair of a barber</t>
-  </si>
-  <si>
-    <t>// Receives the temporary name of a barber</t>
-  </si>
-  <si>
-    <t>// Receives the  name of a barber</t>
-  </si>
-  <si>
-    <t>// Receives the Rg of a barber</t>
-  </si>
-  <si>
-    <t>// Receives the telephone of a barber</t>
-  </si>
-  <si>
-    <t>// Receives the chair of a barber</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> NOME_INVALIDO </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> NOME_BRANCO </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> CPF_INVALIDO </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> CPF_BRANCO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RG_BRANCO </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> RG_INVALIDO</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> TELEFONE_INVALIDO </t>
-  </si>
-  <si>
-    <t>CADEIRA_INVALIDA</t>
-  </si>
-  <si>
-    <t>// Constant that receives a invalid Cpf (cadastro de pessoa física, in portuguese) of a barber</t>
-  </si>
-  <si>
-    <t>// Constant that receives a blank Cpf (cadastro de pessoa física, in portuguese) of a barber</t>
-  </si>
-  <si>
-    <t>// Constant that receives a blank rg (registro geral, in portuguese) of a barber</t>
-  </si>
-  <si>
-    <t>// Constant that receives a invalid rg (registro geral, in portuguese)  of a barber</t>
-  </si>
-  <si>
-    <t>// Receives the Cpf (cadastro de pessoa física, in portuguese) of a barber</t>
-  </si>
-  <si>
-    <t>TELEFONE_BRANCO</t>
-  </si>
-  <si>
-    <t>CADEIRA_BRANCO</t>
-  </si>
-  <si>
-    <t>tempNome</t>
-  </si>
-  <si>
     <t>nome</t>
   </si>
   <si>
-    <t>cpf</t>
-  </si>
-  <si>
-    <t>rg</t>
-  </si>
-  <si>
-    <t>telefone</t>
-  </si>
-  <si>
-    <t>cadeira</t>
-  </si>
-  <si>
-    <t>INVALID_NAME</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  BLANK_CPF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  BLANK_RG </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  INVALID_RG </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> INVALID_TELEPHONE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  BLANK_TELEPHONE</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> INVALID_CHAIR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  BLANK_CHAIR </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> temporaryName</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> barberName</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> barberCpf</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> barberRg</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> barberTelephone</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> barberChair </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  BLANK_NAME</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  INVALID_CPF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> // Auxiliary variables to check Cpf (cadastro de pessoa física, in portuguese)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d2  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">digito1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">digito2 </t>
-  </si>
-  <si>
-    <t>// Variables used to represent the last two digits of a Cpf(cadastro de pessoa física, in portuguese)</t>
-  </si>
-  <si>
-    <t>resto</t>
-  </si>
-  <si>
-    <t>// Auxiliary variable to check Cpf (cadastro de pessoa física, in portuguese)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">digitoCPF;  </t>
-  </si>
-  <si>
-    <t>// Receives the current digit of the Cpf (cadastro de pessoa física, in portuguese)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">String result; </t>
-  </si>
-  <si>
-    <t>// No suggestion</t>
-  </si>
-  <si>
-    <t>// Receives the last two digits of a Cpf(cadastro de pessoa física, in portuguese</t>
-  </si>
-  <si>
-    <t>nCount;</t>
-  </si>
-  <si>
-    <t>// Variable used to walk through the digits of cpf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">auxiliary1                                </t>
-  </si>
-  <si>
-    <t>auxiliary2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> penultimateDigit</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> lastDigit</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> rest </t>
-  </si>
-  <si>
-    <t>cpfDigit</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> currentDigit</t>
-  </si>
-  <si>
-    <t>validarCpf</t>
-  </si>
-  <si>
-    <t>validateCpf</t>
-  </si>
-  <si>
-    <t>verific</t>
-  </si>
-  <si>
-    <t>// Receives the last two digits of a Cpf(cadastro de pessoa física, in portuguese)</t>
-  </si>
-  <si>
-    <t>BarbeiroDAO</t>
-  </si>
-  <si>
-    <t>DAOBarber</t>
-  </si>
-  <si>
     <t>incluir</t>
   </si>
   <si>
-    <t>includeBarber</t>
-  </si>
-  <si>
-    <t>barber</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> // Barber class instance</t>
-  </si>
-  <si>
-    <t>barbeiro</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> nome</t>
-  </si>
-  <si>
     <t>barberName</t>
   </si>
   <si>
@@ -303,18 +57,9 @@
     <t>alterar</t>
   </si>
   <si>
-    <t>changeBarber</t>
-  </si>
-  <si>
     <t>rs</t>
   </si>
   <si>
-    <t>instanceResult</t>
-  </si>
-  <si>
-    <t>//ResultSet interface instance</t>
-  </si>
-  <si>
     <t>AgendaController</t>
   </si>
   <si>
@@ -366,23 +111,32 @@
     <t>Variable name suggestion</t>
   </si>
   <si>
-    <t>instance</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Class variable</t>
-  </si>
-  <si>
-    <t>PhonebookController</t>
+    <t>ResultBarber</t>
+  </si>
+  <si>
+    <t>pesquisarPorDataEBarbeiro</t>
+  </si>
+  <si>
+    <t>searchForDateAndBarber</t>
+  </si>
+  <si>
+    <t>instanceStatement</t>
+  </si>
+  <si>
+    <t>//Instance the java.sql.preparedStatement</t>
+  </si>
+  <si>
+    <t>pst</t>
+  </si>
+  <si>
+    <t>RelatorioDAO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -400,6 +154,12 @@
     </font>
     <font>
       <sz val="7"/>
+      <color rgb="FF3E454C"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF3E454C"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -740,7 +500,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -785,9 +545,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -825,6 +582,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -876,9 +636,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -888,6 +645,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1205,25 +967,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35" t="s">
-        <v>112</v>
-      </c>
-      <c r="C1" s="35" t="s">
+      <c r="B1" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="35" t="s">
-        <v>113</v>
-      </c>
-      <c r="E1" s="35" t="s">
+      <c r="D1" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="35" t="s">
-        <v>114</v>
-      </c>
-      <c r="G1" s="35" t="s">
+      <c r="F1" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="34" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1693,8 +1455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection sqref="A1:G1"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1709,301 +1471,187 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18.600000000000001" thickBot="1">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35" t="s">
-        <v>112</v>
-      </c>
-      <c r="C1" s="35" t="s">
+      <c r="B1" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="35" t="s">
-        <v>113</v>
-      </c>
-      <c r="E1" s="35" t="s">
+      <c r="D1" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="35" t="s">
-        <v>114</v>
-      </c>
-      <c r="G1" s="35" t="s">
+      <c r="F1" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="34" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" thickTop="1">
-      <c r="A2" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="36" t="s">
-        <v>4</v>
-      </c>
+      <c r="A2" s="39"/>
+      <c r="B2" s="36"/>
       <c r="C2" s="12"/>
       <c r="D2" s="8"/>
-      <c r="E2" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>6</v>
-      </c>
+      <c r="E2" s="19"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
     </row>
     <row r="3" spans="1:7" ht="15" customHeight="1">
       <c r="A3" s="40"/>
       <c r="B3" s="37"/>
       <c r="C3" s="11"/>
-      <c r="E3" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>7</v>
-      </c>
+      <c r="E3" s="13"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
     </row>
     <row r="4" spans="1:7" ht="15" customHeight="1">
       <c r="A4" s="40"/>
       <c r="B4" s="37"/>
       <c r="C4" s="11"/>
       <c r="D4" s="9"/>
-      <c r="E4" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>25</v>
-      </c>
+      <c r="E4" s="13"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1">
       <c r="A5" s="40"/>
       <c r="B5" s="37"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
-      <c r="E5" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>26</v>
-      </c>
+      <c r="E5" s="13"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
     </row>
     <row r="6" spans="1:7" ht="15" customHeight="1">
       <c r="A6" s="40"/>
       <c r="B6" s="37"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
-      <c r="E6" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>27</v>
-      </c>
+      <c r="E6" s="13"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1">
       <c r="A7" s="40"/>
       <c r="B7" s="37"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
-      <c r="E7" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>28</v>
-      </c>
+      <c r="E7" s="13"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
     </row>
     <row r="8" spans="1:7" ht="15" customHeight="1">
       <c r="A8" s="40"/>
       <c r="B8" s="37"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
-      <c r="E8" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>8</v>
-      </c>
+      <c r="E8" s="13"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
     </row>
     <row r="9" spans="1:7" ht="15" customHeight="1">
       <c r="A9" s="40"/>
       <c r="B9" s="37"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
-      <c r="E9" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>9</v>
-      </c>
+      <c r="E9" s="14"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
     </row>
     <row r="10" spans="1:7" ht="15" customHeight="1">
       <c r="A10" s="40"/>
       <c r="B10" s="37"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
-      <c r="E10" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>10</v>
-      </c>
+      <c r="E10" s="15"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1">
       <c r="A11" s="40"/>
       <c r="B11" s="37"/>
       <c r="C11" s="4"/>
       <c r="D11" s="5"/>
-      <c r="E11" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>11</v>
-      </c>
+      <c r="E11" s="16"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
     </row>
     <row r="12" spans="1:7" ht="15" customHeight="1">
       <c r="A12" s="40"/>
       <c r="B12" s="37"/>
       <c r="C12" s="4"/>
       <c r="D12" s="5"/>
-      <c r="E12" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>12</v>
-      </c>
+      <c r="E12" s="16"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
     </row>
     <row r="13" spans="1:7" ht="15" customHeight="1">
       <c r="A13" s="40"/>
       <c r="B13" s="37"/>
       <c r="C13" s="4"/>
       <c r="D13" s="5"/>
-      <c r="E13" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>13</v>
-      </c>
+      <c r="E13" s="16"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
     </row>
     <row r="14" spans="1:7" ht="15" customHeight="1">
       <c r="A14" s="40"/>
       <c r="B14" s="37"/>
       <c r="C14" s="4"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>29</v>
-      </c>
+      <c r="E14" s="17"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
     </row>
     <row r="15" spans="1:7" ht="15" customHeight="1">
       <c r="A15" s="40"/>
       <c r="B15" s="37"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
-      <c r="E15" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="E15" s="13"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
     </row>
     <row r="16" spans="1:7" ht="15" customHeight="1">
       <c r="A16" s="40"/>
       <c r="B16" s="37"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
-      <c r="E16" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="E16" s="13"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
     </row>
     <row r="17" spans="1:7" ht="15" customHeight="1">
       <c r="A17" s="40"/>
       <c r="B17" s="37"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
-      <c r="E17" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>16</v>
-      </c>
+      <c r="E17" s="13"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="40"/>
       <c r="B18" s="37"/>
-      <c r="C18" s="45" t="s">
-        <v>76</v>
-      </c>
-      <c r="D18" s="42" t="s">
-        <v>77</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="G18" s="48" t="s">
-        <v>55</v>
-      </c>
+      <c r="C18" s="45"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="48"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="40"/>
       <c r="B19" s="37"/>
       <c r="C19" s="46"/>
       <c r="D19" s="43"/>
-      <c r="E19" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>70</v>
-      </c>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
       <c r="G19" s="49"/>
     </row>
     <row r="20" spans="1:7">
@@ -2011,27 +1659,17 @@
       <c r="B20" s="37"/>
       <c r="C20" s="46"/>
       <c r="D20" s="43"/>
-      <c r="E20" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G20" s="50" t="s">
-        <v>59</v>
-      </c>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="50"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="40"/>
       <c r="B21" s="37"/>
       <c r="C21" s="46"/>
       <c r="D21" s="43"/>
-      <c r="E21" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>72</v>
-      </c>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
       <c r="G21" s="51"/>
     </row>
     <row r="22" spans="1:7">
@@ -2039,75 +1677,44 @@
       <c r="B22" s="37"/>
       <c r="C22" s="46"/>
       <c r="D22" s="43"/>
-      <c r="E22" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>61</v>
-      </c>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="40"/>
       <c r="B23" s="37"/>
       <c r="C23" s="46"/>
       <c r="D23" s="43"/>
-      <c r="E23" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>63</v>
-      </c>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="40"/>
       <c r="B24" s="37"/>
       <c r="C24" s="46"/>
       <c r="D24" s="43"/>
-      <c r="E24" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>66</v>
-      </c>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="40"/>
       <c r="B25" s="37"/>
       <c r="C25" s="46"/>
       <c r="D25" s="43"/>
-      <c r="E25" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>68</v>
-      </c>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="41"/>
       <c r="B26" s="38"/>
       <c r="C26" s="47"/>
       <c r="D26" s="44"/>
-      <c r="E26" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F26" t="s">
-        <v>65</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>79</v>
-      </c>
+      <c r="E26" s="7"/>
+      <c r="G26" s="7"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="3"/>
@@ -2190,346 +1797,370 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection activeCell="A2" sqref="A2:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="40.44140625" style="34" customWidth="1"/>
-    <col min="2" max="2" width="39.5546875" style="34" customWidth="1"/>
-    <col min="3" max="3" width="29.88671875" style="34" customWidth="1"/>
-    <col min="4" max="4" width="36.109375" style="34" customWidth="1"/>
-    <col min="5" max="5" width="33.6640625" style="34" customWidth="1"/>
-    <col min="6" max="6" width="29.6640625" style="34" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.77734375" style="34" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.44140625" style="33" customWidth="1"/>
+    <col min="2" max="2" width="39.5546875" style="33" customWidth="1"/>
+    <col min="3" max="3" width="29.88671875" style="33" customWidth="1"/>
+    <col min="4" max="4" width="36.109375" style="33" customWidth="1"/>
+    <col min="5" max="5" width="33.6640625" style="33" customWidth="1"/>
+    <col min="6" max="6" width="29.6640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.77734375" style="33" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35" t="s">
-        <v>112</v>
-      </c>
-      <c r="C1" s="35" t="s">
+      <c r="B1" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="35" t="s">
-        <v>113</v>
-      </c>
-      <c r="E1" s="35" t="s">
+      <c r="D1" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="35" t="s">
-        <v>114</v>
-      </c>
-      <c r="G1" s="35" t="s">
+      <c r="F1" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="34" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="B2" s="31" t="s">
-        <v>118</v>
+      <c r="A2" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="53" t="s">
+        <v>15</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>116</v>
-      </c>
-      <c r="D2" s="31" t="s">
-        <v>116</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>117</v>
+        <v>5</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="31"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
+      <c r="A3" s="54"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="31"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
+      <c r="A4" s="55"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="31"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
+      <c r="A5" s="30"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="31"/>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
+      <c r="A6" s="30"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="31"/>
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
+      <c r="A7" s="30"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="31"/>
-      <c r="B8" s="31"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
+      <c r="A8" s="30"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="31"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
+      <c r="A9" s="30"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="31"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
+      <c r="A10" s="30"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="31"/>
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
+      <c r="A11" s="30"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="31"/>
-      <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
+      <c r="A12" s="30"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="31"/>
-      <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
+      <c r="A13" s="30"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="31"/>
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
+      <c r="A14" s="30"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="31"/>
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
+      <c r="A15" s="30"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="31"/>
-      <c r="B16" s="31"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
+      <c r="A16" s="30"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="31"/>
-      <c r="B17" s="31"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
+      <c r="A17" s="30"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="31"/>
-      <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
+      <c r="A18" s="30"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="31"/>
-      <c r="B19" s="31"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
+      <c r="A19" s="30"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="31"/>
-      <c r="B20" s="31"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
+      <c r="A20" s="30"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="31"/>
-      <c r="B21" s="31"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
+      <c r="A21" s="30"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="31"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
+      <c r="A22" s="30"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="31"/>
-      <c r="B23" s="31"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
+      <c r="A23" s="30"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="31"/>
-      <c r="B24" s="31"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="31"/>
+      <c r="A24" s="30"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="31"/>
-      <c r="B25" s="31"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
+      <c r="A25" s="30"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="31"/>
-      <c r="B26" s="31"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="31"/>
+      <c r="A26" s="30"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="31"/>
-      <c r="B27" s="31"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="31"/>
+      <c r="A27" s="30"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="31"/>
-      <c r="B28" s="31"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31"/>
+      <c r="A28" s="30"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="31"/>
-      <c r="B29" s="31"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="31"/>
+      <c r="A29" s="30"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="30"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="31"/>
-      <c r="B30" s="31"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="31"/>
+      <c r="A30" s="30"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="31"/>
-      <c r="B31" s="31"/>
-      <c r="C31" s="31"/>
-      <c r="D31" s="31"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="31"/>
+      <c r="A31" s="30"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="31"/>
-      <c r="B32" s="31"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="31"/>
+      <c r="A32" s="30"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="30"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="31"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
+      <c r="A33" s="30"/>
+      <c r="B33" s="30"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="30"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
@@ -2539,7 +2170,7 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection activeCell="A2" sqref="A2:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2555,99 +2186,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35" t="s">
-        <v>112</v>
-      </c>
-      <c r="C1" s="35" t="s">
+      <c r="B1" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="35" t="s">
-        <v>113</v>
-      </c>
-      <c r="E1" s="35" t="s">
+      <c r="D1" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="35" t="s">
-        <v>114</v>
-      </c>
-      <c r="G1" s="35" t="s">
+      <c r="F1" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="34" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2" s="54" t="s">
-        <v>81</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="E2" s="24" t="s">
-        <v>86</v>
+    <row r="2" spans="1:7" ht="15.6">
+      <c r="A2" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="53" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>12</v>
       </c>
       <c r="F2" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="G2" s="25" t="s">
-        <v>85</v>
+        <v>33</v>
+      </c>
+      <c r="G2" s="56" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="55"/>
-      <c r="B3" s="55"/>
-      <c r="C3" s="52" t="s">
-        <v>93</v>
-      </c>
-      <c r="D3" s="53" t="s">
-        <v>94</v>
-      </c>
-      <c r="E3" s="24" t="s">
-        <v>87</v>
+      <c r="A3" s="54"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="23" t="s">
+        <v>35</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>88</v>
+        <v>6</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>89</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="55"/>
-      <c r="B4" s="55"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="25" t="s">
-        <v>90</v>
+      <c r="A4" s="54"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="24" t="s">
+        <v>8</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>91</v>
+        <v>9</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>92</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="56"/>
-      <c r="B5" s="56"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="F5" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="G5" s="25" t="s">
-        <v>97</v>
-      </c>
+      <c r="A5" s="55"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="6"/>
@@ -2903,10 +2521,10 @@
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="A2:A5"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -2936,19 +2554,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>112</v>
+        <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>113</v>
+        <v>28</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>114</v>
+        <v>29</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>3</v>
@@ -2959,8 +2577,8 @@
       <c r="B2" s="52"/>
       <c r="C2" s="7"/>
       <c r="D2" s="6"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
       <c r="G2" s="7"/>
     </row>
     <row r="3" spans="1:7">
@@ -2975,9 +2593,9 @@
     <row r="4" spans="1:7">
       <c r="A4" s="52"/>
       <c r="B4" s="52"/>
-      <c r="C4" s="22"/>
+      <c r="C4" s="21"/>
       <c r="D4" s="6"/>
-      <c r="E4" s="24"/>
+      <c r="E4" s="23"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
     </row>
@@ -2986,7 +2604,7 @@
       <c r="B5" s="52"/>
       <c r="C5" s="52"/>
       <c r="D5" s="52"/>
-      <c r="E5" s="24"/>
+      <c r="E5" s="23"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
     </row>
@@ -3011,152 +2629,152 @@
     <row r="8" spans="1:7">
       <c r="A8" s="52"/>
       <c r="B8" s="52"/>
-      <c r="C8" s="22"/>
+      <c r="C8" s="21"/>
       <c r="D8" s="6"/>
-      <c r="E8" s="24"/>
+      <c r="E8" s="23"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="54"/>
-      <c r="B9" s="54"/>
-      <c r="C9" s="22"/>
+      <c r="A9" s="53"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="21"/>
       <c r="D9" s="6"/>
-      <c r="E9" s="24"/>
+      <c r="E9" s="23"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="55"/>
-      <c r="B10" s="55"/>
-      <c r="C10" s="27"/>
+      <c r="A10" s="54"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="26"/>
       <c r="D10" s="6"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="55"/>
-      <c r="B11" s="55"/>
-      <c r="C11" s="28"/>
+      <c r="A11" s="54"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="27"/>
       <c r="D11" s="6"/>
-      <c r="E11" s="24"/>
+      <c r="E11" s="23"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="55"/>
-      <c r="B12" s="55"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
+      <c r="A12" s="54"/>
+      <c r="B12" s="54"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="55"/>
-      <c r="B13" s="55"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="24"/>
+      <c r="A13" s="54"/>
+      <c r="B13" s="54"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="23"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="55"/>
-      <c r="B14" s="55"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
+      <c r="A14" s="54"/>
+      <c r="B14" s="54"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="55"/>
-      <c r="B15" s="55"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="24"/>
+      <c r="A15" s="54"/>
+      <c r="B15" s="54"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="23"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="55"/>
-      <c r="B16" s="55"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
+      <c r="A16" s="54"/>
+      <c r="B16" s="54"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="56"/>
-      <c r="B17" s="56"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="24"/>
+      <c r="A17" s="55"/>
+      <c r="B17" s="55"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="23"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="54" t="s">
-        <v>98</v>
-      </c>
-      <c r="B18" s="54" t="s">
-        <v>100</v>
-      </c>
-      <c r="C18" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="D18" s="30" t="s">
-        <v>101</v>
-      </c>
-      <c r="E18" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="F18" s="33" t="s">
-        <v>104</v>
+      <c r="A18" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="32" t="s">
+        <v>19</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>102</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="55"/>
-      <c r="B19" s="55"/>
-      <c r="C19" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="D19" s="30" t="s">
-        <v>109</v>
-      </c>
-      <c r="E19" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="F19" s="33" t="s">
-        <v>103</v>
+      <c r="A19" s="54"/>
+      <c r="B19" s="54"/>
+      <c r="C19" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" s="32" t="s">
+        <v>18</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>105</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="56"/>
-      <c r="B20" s="56"/>
-      <c r="C20" s="30" t="s">
-        <v>110</v>
-      </c>
-      <c r="D20" s="30" t="s">
-        <v>111</v>
-      </c>
-      <c r="E20" s="24" t="s">
-        <v>106</v>
+      <c r="A20" s="55"/>
+      <c r="B20" s="55"/>
+      <c r="C20" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="23" t="s">
+        <v>21</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>107</v>
+        <v>22</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>108</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -3295,7 +2913,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
@@ -3309,25 +2927,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35" t="s">
-        <v>112</v>
-      </c>
-      <c r="C1" s="35" t="s">
+      <c r="B1" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="35" t="s">
-        <v>113</v>
-      </c>
-      <c r="E1" s="35" t="s">
+      <c r="D1" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="35" t="s">
-        <v>114</v>
-      </c>
-      <c r="G1" s="35" t="s">
+      <c r="F1" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="34" t="s">
         <v>3</v>
       </c>
     </row>

--- a/Atividade 2 - Lista de variáveis_A.xlsx
+++ b/Atividade 2 - Lista de variáveis_A.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="51">
   <si>
     <t>Class</t>
   </si>
@@ -130,6 +130,48 @@
   </si>
   <si>
     <t>RelatorioDAO</t>
+  </si>
+  <si>
+    <t>Agenda</t>
+  </si>
+  <si>
+    <t>Phonebook</t>
+  </si>
+  <si>
+    <t>receivesAgenda</t>
+  </si>
+  <si>
+    <t>Nome</t>
+  </si>
+  <si>
+    <t>//Receives the name for phonebook</t>
+  </si>
+  <si>
+    <t>telefone</t>
+  </si>
+  <si>
+    <t>//Receives the number of phone for phonebook</t>
+  </si>
+  <si>
+    <t>descrição</t>
+  </si>
+  <si>
+    <t>phonebookDs</t>
+  </si>
+  <si>
+    <t>//Receives the description for phonebook</t>
+  </si>
+  <si>
+    <t>getTempName</t>
+  </si>
+  <si>
+    <t>no sugestion</t>
+  </si>
+  <si>
+    <t>tempName</t>
+  </si>
+  <si>
+    <t>//Receives the variable for change the metod</t>
   </si>
 </sst>
 </file>
@@ -179,7 +221,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -245,32 +287,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -475,10 +491,23 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color theme="3" tint="-0.249977111117893"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -486,21 +515,80 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
+      <left style="medium">
+        <color theme="3" tint="-0.249977111117893"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="3" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="3"/>
+      </left>
+      <right style="medium">
+        <color theme="3"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="3"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="3"/>
+      </left>
+      <right style="medium">
+        <color theme="3"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="3"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -521,24 +609,14 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -572,7 +650,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -585,71 +663,95 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -967,25 +1069,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="F1" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="G1" s="30" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1456,7 +1558,7 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+      <selection activeCell="A2" sqref="A2:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1471,248 +1573,285 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18.600000000000001" thickBot="1">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="F1" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="G1" s="30" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" thickTop="1">
-      <c r="A2" s="39"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
+      <c r="A2" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="57" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="3" spans="1:7" ht="15" customHeight="1">
-      <c r="A3" s="40"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="11"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
+      <c r="A3" s="38"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="4" spans="1:7" ht="15" customHeight="1">
-      <c r="A4" s="40"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
+      <c r="A4" s="38"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1">
-      <c r="A5" s="40"/>
-      <c r="B5" s="37"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
+      <c r="A5" s="38"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="6" spans="1:7" ht="15" customHeight="1">
-      <c r="A6" s="40"/>
-      <c r="B6" s="37"/>
+      <c r="A6" s="47"/>
+      <c r="B6" s="48"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
-      <c r="E6" s="13"/>
+      <c r="E6" s="9"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1">
-      <c r="A7" s="40"/>
-      <c r="B7" s="37"/>
+      <c r="A7" s="47"/>
+      <c r="B7" s="48"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
-      <c r="E7" s="13"/>
+      <c r="E7" s="9"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
     </row>
     <row r="8" spans="1:7" ht="15" customHeight="1">
-      <c r="A8" s="40"/>
-      <c r="B8" s="37"/>
+      <c r="A8" s="47"/>
+      <c r="B8" s="48"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
-      <c r="E8" s="13"/>
+      <c r="E8" s="9"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
     </row>
     <row r="9" spans="1:7" ht="15" customHeight="1">
-      <c r="A9" s="40"/>
-      <c r="B9" s="37"/>
+      <c r="A9" s="47"/>
+      <c r="B9" s="48"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
-      <c r="E9" s="14"/>
+      <c r="E9" s="10"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
     </row>
     <row r="10" spans="1:7" ht="15" customHeight="1">
-      <c r="A10" s="40"/>
-      <c r="B10" s="37"/>
+      <c r="A10" s="47"/>
+      <c r="B10" s="48"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
-      <c r="E10" s="15"/>
+      <c r="E10" s="11"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1">
-      <c r="A11" s="40"/>
-      <c r="B11" s="37"/>
+      <c r="A11" s="47"/>
+      <c r="B11" s="48"/>
       <c r="C11" s="4"/>
       <c r="D11" s="5"/>
-      <c r="E11" s="16"/>
+      <c r="E11" s="12"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
     </row>
     <row r="12" spans="1:7" ht="15" customHeight="1">
-      <c r="A12" s="40"/>
-      <c r="B12" s="37"/>
+      <c r="A12" s="47"/>
+      <c r="B12" s="48"/>
       <c r="C12" s="4"/>
       <c r="D12" s="5"/>
-      <c r="E12" s="16"/>
+      <c r="E12" s="12"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
     </row>
     <row r="13" spans="1:7" ht="15" customHeight="1">
-      <c r="A13" s="40"/>
-      <c r="B13" s="37"/>
+      <c r="A13" s="47"/>
+      <c r="B13" s="48"/>
       <c r="C13" s="4"/>
       <c r="D13" s="5"/>
-      <c r="E13" s="16"/>
+      <c r="E13" s="12"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
     </row>
     <row r="14" spans="1:7" ht="15" customHeight="1">
-      <c r="A14" s="40"/>
-      <c r="B14" s="37"/>
+      <c r="A14" s="47"/>
+      <c r="B14" s="48"/>
       <c r="C14" s="4"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="17"/>
+      <c r="E14" s="13"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
     </row>
     <row r="15" spans="1:7" ht="15" customHeight="1">
-      <c r="A15" s="40"/>
-      <c r="B15" s="37"/>
+      <c r="A15" s="47"/>
+      <c r="B15" s="48"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
-      <c r="E15" s="13"/>
+      <c r="E15" s="9"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
     </row>
     <row r="16" spans="1:7" ht="15" customHeight="1">
-      <c r="A16" s="40"/>
-      <c r="B16" s="37"/>
+      <c r="A16" s="47"/>
+      <c r="B16" s="48"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
-      <c r="E16" s="13"/>
+      <c r="E16" s="9"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
     </row>
     <row r="17" spans="1:7" ht="15" customHeight="1">
-      <c r="A17" s="40"/>
-      <c r="B17" s="37"/>
+      <c r="A17" s="47"/>
+      <c r="B17" s="48"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
-      <c r="E17" s="13"/>
+      <c r="E17" s="9"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="40"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="42"/>
+      <c r="A18" s="47"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="50"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
-      <c r="G18" s="48"/>
+      <c r="G18" s="39"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="40"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="43"/>
+      <c r="A19" s="47"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="52"/>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
-      <c r="G19" s="49"/>
+      <c r="G19" s="40"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="40"/>
-      <c r="B20" s="37"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="43"/>
+      <c r="A20" s="47"/>
+      <c r="B20" s="48"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="52"/>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
-      <c r="G20" s="50"/>
+      <c r="G20" s="41"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="40"/>
-      <c r="B21" s="37"/>
-      <c r="C21" s="46"/>
-      <c r="D21" s="43"/>
+      <c r="A21" s="47"/>
+      <c r="B21" s="48"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="52"/>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
-      <c r="G21" s="51"/>
+      <c r="G21" s="42"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="40"/>
-      <c r="B22" s="37"/>
-      <c r="C22" s="46"/>
-      <c r="D22" s="43"/>
+      <c r="A22" s="47"/>
+      <c r="B22" s="48"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="52"/>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="40"/>
-      <c r="B23" s="37"/>
-      <c r="C23" s="46"/>
-      <c r="D23" s="43"/>
+      <c r="A23" s="47"/>
+      <c r="B23" s="48"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="52"/>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="40"/>
-      <c r="B24" s="37"/>
-      <c r="C24" s="46"/>
-      <c r="D24" s="43"/>
+      <c r="A24" s="47"/>
+      <c r="B24" s="48"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="52"/>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="40"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="46"/>
-      <c r="D25" s="43"/>
+      <c r="A25" s="47"/>
+      <c r="B25" s="48"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="52"/>
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="41"/>
-      <c r="B26" s="38"/>
-      <c r="C26" s="47"/>
-      <c r="D26" s="44"/>
+      <c r="A26" s="53"/>
+      <c r="B26" s="54"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="56"/>
       <c r="E26" s="7"/>
       <c r="G26" s="7"/>
     </row>
@@ -1721,8 +1860,8 @@
       <c r="B27" s="5"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="17"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="13"/>
       <c r="G27" s="7"/>
     </row>
     <row r="28" spans="1:7">
@@ -1730,27 +1869,27 @@
       <c r="B28" s="5"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
-      <c r="E28" s="13"/>
+      <c r="E28" s="9"/>
       <c r="F28" s="7"/>
-      <c r="G28" s="18"/>
+      <c r="G28" s="14"/>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="3"/>
       <c r="B29" s="5"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
-      <c r="E29" s="13"/>
+      <c r="E29" s="9"/>
       <c r="F29" s="7"/>
-      <c r="G29" s="18"/>
+      <c r="G29" s="14"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="3"/>
       <c r="B30" s="5"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
-      <c r="E30" s="13"/>
+      <c r="E30" s="9"/>
       <c r="F30" s="7"/>
-      <c r="G30" s="18"/>
+      <c r="G30" s="14"/>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="3"/>
@@ -1759,7 +1898,7 @@
       <c r="D31" s="4"/>
       <c r="E31" s="5"/>
       <c r="F31" s="7"/>
-      <c r="G31" s="18"/>
+      <c r="G31" s="14"/>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="3"/>
@@ -1767,8 +1906,8 @@
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="5"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="3"/>
@@ -1776,17 +1915,17 @@
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="E33" s="5"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="B2:B26"/>
-    <mergeCell ref="A2:A26"/>
-    <mergeCell ref="D18:D26"/>
-    <mergeCell ref="C18:C26"/>
     <mergeCell ref="G18:G19"/>
     <mergeCell ref="G20:G21"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="D2:D4"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -1802,55 +1941,55 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="40.44140625" style="33" customWidth="1"/>
-    <col min="2" max="2" width="39.5546875" style="33" customWidth="1"/>
-    <col min="3" max="3" width="29.88671875" style="33" customWidth="1"/>
-    <col min="4" max="4" width="36.109375" style="33" customWidth="1"/>
-    <col min="5" max="5" width="33.6640625" style="33" customWidth="1"/>
-    <col min="6" max="6" width="29.6640625" style="33" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.77734375" style="33" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.44140625" style="29" customWidth="1"/>
+    <col min="2" max="2" width="39.5546875" style="29" customWidth="1"/>
+    <col min="3" max="3" width="29.88671875" style="29" customWidth="1"/>
+    <col min="4" max="4" width="36.109375" style="29" customWidth="1"/>
+    <col min="5" max="5" width="33.6640625" style="29" customWidth="1"/>
+    <col min="6" max="6" width="29.6640625" style="29" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.77734375" style="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="F1" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="G1" s="30" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="D2" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="32" t="s">
+      <c r="F2" s="28" t="s">
         <v>19</v>
       </c>
       <c r="G2" s="7" t="s">
@@ -1858,18 +1997,18 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="54"/>
-      <c r="B3" s="54"/>
-      <c r="C3" s="26" t="s">
+      <c r="A3" s="44"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="D3" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="32" t="s">
+      <c r="F3" s="28" t="s">
         <v>18</v>
       </c>
       <c r="G3" s="7" t="s">
@@ -1877,15 +2016,15 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="55"/>
-      <c r="B4" s="55"/>
-      <c r="C4" s="35" t="s">
+      <c r="A4" s="45"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="35" t="s">
+      <c r="D4" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="19" t="s">
         <v>21</v>
       </c>
       <c r="F4" s="7" t="s">
@@ -1896,265 +2035,265 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="30"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
+      <c r="A5" s="26"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="30"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
+      <c r="A6" s="26"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="30"/>
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
+      <c r="A7" s="26"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="30"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
+      <c r="A8" s="26"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="30"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
+      <c r="A9" s="26"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="30"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
+      <c r="A10" s="26"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="30"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
+      <c r="A11" s="26"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="30"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
+      <c r="A12" s="26"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="30"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
+      <c r="A13" s="26"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="30"/>
-      <c r="B14" s="30"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
+      <c r="A14" s="26"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="30"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
+      <c r="A15" s="26"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="30"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
+      <c r="A16" s="26"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="30"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
+      <c r="A17" s="26"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="30"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
+      <c r="A18" s="26"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="30"/>
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
+      <c r="A19" s="26"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="30"/>
-      <c r="B20" s="30"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
+      <c r="A20" s="26"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="30"/>
-      <c r="B21" s="30"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
+      <c r="A21" s="26"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="30"/>
-      <c r="B22" s="30"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
+      <c r="A22" s="26"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="30"/>
-      <c r="B23" s="30"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
+      <c r="A23" s="26"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="30"/>
-      <c r="B24" s="30"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="30"/>
+      <c r="A24" s="26"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="30"/>
-      <c r="B25" s="30"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="30"/>
+      <c r="A25" s="26"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="30"/>
-      <c r="B26" s="30"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="30"/>
+      <c r="A26" s="26"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="30"/>
-      <c r="B27" s="30"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
+      <c r="A27" s="26"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="30"/>
-      <c r="B28" s="30"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="30"/>
+      <c r="A28" s="26"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="30"/>
-      <c r="B29" s="30"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="30"/>
+      <c r="A29" s="26"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="30"/>
-      <c r="B30" s="30"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="30"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="30"/>
+      <c r="A30" s="26"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="30"/>
-      <c r="B31" s="30"/>
-      <c r="C31" s="30"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="30"/>
+      <c r="A31" s="26"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="30"/>
-      <c r="B32" s="30"/>
-      <c r="C32" s="30"/>
-      <c r="D32" s="30"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="30"/>
+      <c r="A32" s="26"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="30"/>
-      <c r="B33" s="30"/>
-      <c r="C33" s="30"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="30"/>
+      <c r="A33" s="26"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2186,57 +2325,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="F1" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="G1" s="30" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.6">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="53" t="s">
+      <c r="C2" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="53" t="s">
+      <c r="D2" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="56" t="s">
+      <c r="G2" s="32" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="54"/>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="23" t="s">
+      <c r="A3" s="44"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="19" t="s">
         <v>35</v>
       </c>
       <c r="F3" s="7" t="s">
@@ -2247,11 +2386,11 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="54"/>
-      <c r="B4" s="54"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="24" t="s">
+      <c r="A4" s="44"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="20" t="s">
         <v>8</v>
       </c>
       <c r="F4" s="7" t="s">
@@ -2262,10 +2401,10 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="55"/>
-      <c r="B5" s="55"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
+      <c r="A5" s="45"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="6"/>
@@ -2573,17 +2712,17 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="52"/>
-      <c r="B2" s="52"/>
+      <c r="A2" s="46"/>
+      <c r="B2" s="46"/>
       <c r="C2" s="7"/>
       <c r="D2" s="6"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
       <c r="G2" s="7"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="52"/>
-      <c r="B3" s="52"/>
+      <c r="A3" s="46"/>
+      <c r="B3" s="46"/>
       <c r="C3" s="6"/>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -2591,148 +2730,148 @@
       <c r="G3" s="7"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="52"/>
-      <c r="B4" s="52"/>
-      <c r="C4" s="21"/>
+      <c r="A4" s="46"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="17"/>
       <c r="D4" s="6"/>
-      <c r="E4" s="23"/>
+      <c r="E4" s="19"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="52"/>
-      <c r="B5" s="52"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="23"/>
+      <c r="A5" s="46"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="19"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="52"/>
-      <c r="B6" s="52"/>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
+      <c r="A6" s="46"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="52"/>
-      <c r="B7" s="52"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
+      <c r="A7" s="46"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="52"/>
-      <c r="B8" s="52"/>
-      <c r="C8" s="21"/>
+      <c r="A8" s="46"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="17"/>
       <c r="D8" s="6"/>
-      <c r="E8" s="23"/>
+      <c r="E8" s="19"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="53"/>
-      <c r="B9" s="53"/>
-      <c r="C9" s="21"/>
+      <c r="A9" s="43"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="17"/>
       <c r="D9" s="6"/>
-      <c r="E9" s="23"/>
+      <c r="E9" s="19"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="54"/>
-      <c r="B10" s="54"/>
-      <c r="C10" s="26"/>
+      <c r="A10" s="44"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="22"/>
       <c r="D10" s="6"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="54"/>
-      <c r="B11" s="54"/>
-      <c r="C11" s="27"/>
+      <c r="A11" s="44"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="23"/>
       <c r="D11" s="6"/>
-      <c r="E11" s="23"/>
+      <c r="E11" s="19"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="54"/>
-      <c r="B12" s="54"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
+      <c r="A12" s="44"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="54"/>
-      <c r="B13" s="54"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="23"/>
+      <c r="A13" s="44"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="19"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="54"/>
-      <c r="B14" s="54"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
+      <c r="A14" s="44"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="54"/>
-      <c r="B15" s="54"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="23"/>
+      <c r="A15" s="44"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="19"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="54"/>
-      <c r="B16" s="54"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
+      <c r="A16" s="44"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="55"/>
-      <c r="B17" s="55"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="23"/>
+      <c r="A17" s="45"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="19"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="53" t="s">
+      <c r="A18" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="53" t="s">
+      <c r="B18" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="31" t="s">
+      <c r="C18" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="29" t="s">
+      <c r="D18" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="23" t="s">
+      <c r="E18" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="32" t="s">
+      <c r="F18" s="28" t="s">
         <v>19</v>
       </c>
       <c r="G18" s="7" t="s">
@@ -2740,18 +2879,18 @@
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="54"/>
-      <c r="B19" s="54"/>
-      <c r="C19" s="26" t="s">
+      <c r="A19" s="44"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="29" t="s">
+      <c r="D19" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="E19" s="22" t="s">
+      <c r="E19" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F19" s="32" t="s">
+      <c r="F19" s="28" t="s">
         <v>18</v>
       </c>
       <c r="G19" s="7" t="s">
@@ -2759,15 +2898,15 @@
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="55"/>
-      <c r="B20" s="55"/>
-      <c r="C20" s="29" t="s">
+      <c r="A20" s="45"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="29" t="s">
+      <c r="D20" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="E20" s="23" t="s">
+      <c r="E20" s="19" t="s">
         <v>21</v>
       </c>
       <c r="F20" s="7" t="s">
@@ -2927,25 +3066,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="F1" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="G1" s="30" t="s">
         <v>3</v>
       </c>
     </row>

--- a/Atividade 2 - Lista de variáveis_A.xlsx
+++ b/Atividade 2 - Lista de variáveis_A.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="15156" windowHeight="7992" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="15156" windowHeight="7992" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="View" sheetId="7" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="67">
   <si>
     <t>Class</t>
   </si>
@@ -172,6 +172,54 @@
   </si>
   <si>
     <t>//Receives the variable for change the metod</t>
+  </si>
+  <si>
+    <t>BarbeiroTeste</t>
+  </si>
+  <si>
+    <t>TestBarber</t>
+  </si>
+  <si>
+    <t>setUp</t>
+  </si>
+  <si>
+    <t>setNome</t>
+  </si>
+  <si>
+    <t>setName</t>
+  </si>
+  <si>
+    <t>//Receives the name for barbeiroTeste</t>
+  </si>
+  <si>
+    <t>setRg</t>
+  </si>
+  <si>
+    <t>//Receives the Rg for barbeiroTeste</t>
+  </si>
+  <si>
+    <t>setTelefone</t>
+  </si>
+  <si>
+    <t>setPhone</t>
+  </si>
+  <si>
+    <t>//Receives the phone for barbeiroTeste</t>
+  </si>
+  <si>
+    <t>setCpf</t>
+  </si>
+  <si>
+    <t>//Receives the cpf for barbeiroTeste</t>
+  </si>
+  <si>
+    <t>setCadeira</t>
+  </si>
+  <si>
+    <t>setChair</t>
+  </si>
+  <si>
+    <t>//Receives the chair for barbeiroTeste</t>
   </si>
 </sst>
 </file>
@@ -623,9 +671,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -634,14 +679,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -668,29 +707,83 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -701,56 +794,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1069,25 +1117,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="27" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1557,7 +1605,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:G5"/>
     </sheetView>
   </sheetViews>
@@ -1573,39 +1621,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18.600000000000001" thickBot="1">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="27" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" thickTop="1">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="57" t="s">
+      <c r="C2" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="58" t="s">
+      <c r="D2" s="55" t="s">
         <v>39</v>
       </c>
       <c r="E2" s="15" t="s">
@@ -1619,10 +1667,10 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" customHeight="1">
-      <c r="A3" s="38"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="60"/>
+      <c r="A3" s="49"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="56"/>
       <c r="E3" s="9" t="s">
         <v>42</v>
       </c>
@@ -1634,10 +1682,10 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="15" customHeight="1">
-      <c r="A4" s="38"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="62"/>
+      <c r="A4" s="49"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="57"/>
       <c r="E4" s="9" t="s">
         <v>44</v>
       </c>
@@ -1649,8 +1697,8 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1">
-      <c r="A5" s="38"/>
-      <c r="B5" s="36"/>
+      <c r="A5" s="49"/>
+      <c r="B5" s="51"/>
       <c r="C5" s="4" t="s">
         <v>47</v>
       </c>
@@ -1668,8 +1716,8 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="15" customHeight="1">
-      <c r="A6" s="47"/>
-      <c r="B6" s="48"/>
+      <c r="A6" s="34"/>
+      <c r="B6" s="35"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="9"/>
@@ -1677,8 +1725,8 @@
       <c r="G6" s="7"/>
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1">
-      <c r="A7" s="47"/>
-      <c r="B7" s="48"/>
+      <c r="A7" s="34"/>
+      <c r="B7" s="35"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="9"/>
@@ -1686,8 +1734,8 @@
       <c r="G7" s="7"/>
     </row>
     <row r="8" spans="1:7" ht="15" customHeight="1">
-      <c r="A8" s="47"/>
-      <c r="B8" s="48"/>
+      <c r="A8" s="34"/>
+      <c r="B8" s="35"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="9"/>
@@ -1695,8 +1743,8 @@
       <c r="G8" s="7"/>
     </row>
     <row r="9" spans="1:7" ht="15" customHeight="1">
-      <c r="A9" s="47"/>
-      <c r="B9" s="48"/>
+      <c r="A9" s="34"/>
+      <c r="B9" s="35"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="10"/>
@@ -1704,8 +1752,8 @@
       <c r="G9" s="7"/>
     </row>
     <row r="10" spans="1:7" ht="15" customHeight="1">
-      <c r="A10" s="47"/>
-      <c r="B10" s="48"/>
+      <c r="A10" s="34"/>
+      <c r="B10" s="35"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="11"/>
@@ -1713,8 +1761,8 @@
       <c r="G10" s="7"/>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1">
-      <c r="A11" s="47"/>
-      <c r="B11" s="48"/>
+      <c r="A11" s="34"/>
+      <c r="B11" s="35"/>
       <c r="C11" s="4"/>
       <c r="D11" s="5"/>
       <c r="E11" s="12"/>
@@ -1722,8 +1770,8 @@
       <c r="G11" s="7"/>
     </row>
     <row r="12" spans="1:7" ht="15" customHeight="1">
-      <c r="A12" s="47"/>
-      <c r="B12" s="48"/>
+      <c r="A12" s="34"/>
+      <c r="B12" s="35"/>
       <c r="C12" s="4"/>
       <c r="D12" s="5"/>
       <c r="E12" s="12"/>
@@ -1731,8 +1779,8 @@
       <c r="G12" s="7"/>
     </row>
     <row r="13" spans="1:7" ht="15" customHeight="1">
-      <c r="A13" s="47"/>
-      <c r="B13" s="48"/>
+      <c r="A13" s="34"/>
+      <c r="B13" s="35"/>
       <c r="C13" s="4"/>
       <c r="D13" s="5"/>
       <c r="E13" s="12"/>
@@ -1740,8 +1788,8 @@
       <c r="G13" s="7"/>
     </row>
     <row r="14" spans="1:7" ht="15" customHeight="1">
-      <c r="A14" s="47"/>
-      <c r="B14" s="48"/>
+      <c r="A14" s="34"/>
+      <c r="B14" s="35"/>
       <c r="C14" s="4"/>
       <c r="D14" s="5"/>
       <c r="E14" s="13"/>
@@ -1749,8 +1797,8 @@
       <c r="G14" s="7"/>
     </row>
     <row r="15" spans="1:7" ht="15" customHeight="1">
-      <c r="A15" s="47"/>
-      <c r="B15" s="48"/>
+      <c r="A15" s="34"/>
+      <c r="B15" s="35"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="9"/>
@@ -1758,8 +1806,8 @@
       <c r="G15" s="7"/>
     </row>
     <row r="16" spans="1:7" ht="15" customHeight="1">
-      <c r="A16" s="47"/>
-      <c r="B16" s="48"/>
+      <c r="A16" s="34"/>
+      <c r="B16" s="35"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="9"/>
@@ -1767,8 +1815,8 @@
       <c r="G16" s="7"/>
     </row>
     <row r="17" spans="1:7" ht="15" customHeight="1">
-      <c r="A17" s="47"/>
-      <c r="B17" s="48"/>
+      <c r="A17" s="34"/>
+      <c r="B17" s="35"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="9"/>
@@ -1776,82 +1824,82 @@
       <c r="G17" s="7"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="47"/>
-      <c r="B18" s="48"/>
-      <c r="C18" s="49"/>
-      <c r="D18" s="50"/>
+      <c r="A18" s="34"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="37"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
-      <c r="G18" s="39"/>
+      <c r="G18" s="44"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="47"/>
-      <c r="B19" s="48"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="52"/>
+      <c r="A19" s="34"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="39"/>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
-      <c r="G19" s="40"/>
+      <c r="G19" s="45"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="47"/>
-      <c r="B20" s="48"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="52"/>
+      <c r="A20" s="34"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="39"/>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
-      <c r="G20" s="41"/>
+      <c r="G20" s="46"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="47"/>
-      <c r="B21" s="48"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="52"/>
+      <c r="A21" s="34"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="39"/>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
-      <c r="G21" s="42"/>
+      <c r="G21" s="47"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="47"/>
-      <c r="B22" s="48"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="52"/>
+      <c r="A22" s="34"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="39"/>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="47"/>
-      <c r="B23" s="48"/>
-      <c r="C23" s="51"/>
-      <c r="D23" s="52"/>
+      <c r="A23" s="34"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="39"/>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="47"/>
-      <c r="B24" s="48"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="52"/>
+      <c r="A24" s="34"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="39"/>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="47"/>
-      <c r="B25" s="48"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="52"/>
+      <c r="A25" s="34"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="39"/>
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="53"/>
-      <c r="B26" s="54"/>
-      <c r="C26" s="55"/>
-      <c r="D26" s="56"/>
+      <c r="A26" s="40"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="43"/>
       <c r="E26" s="7"/>
       <c r="G26" s="7"/>
     </row>
@@ -1941,55 +1989,55 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="40.44140625" style="29" customWidth="1"/>
-    <col min="2" max="2" width="39.5546875" style="29" customWidth="1"/>
-    <col min="3" max="3" width="29.88671875" style="29" customWidth="1"/>
-    <col min="4" max="4" width="36.109375" style="29" customWidth="1"/>
-    <col min="5" max="5" width="33.6640625" style="29" customWidth="1"/>
-    <col min="6" max="6" width="29.6640625" style="29" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.77734375" style="29" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.44140625" style="26" customWidth="1"/>
+    <col min="2" max="2" width="39.5546875" style="26" customWidth="1"/>
+    <col min="3" max="3" width="29.88671875" style="26" customWidth="1"/>
+    <col min="4" max="4" width="36.109375" style="26" customWidth="1"/>
+    <col min="5" max="5" width="33.6640625" style="26" customWidth="1"/>
+    <col min="6" max="6" width="29.6640625" style="26" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.77734375" style="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="27" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="28" t="s">
+      <c r="F2" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G2" s="7" t="s">
@@ -1997,18 +2045,18 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="44"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="22" t="s">
+      <c r="A3" s="59"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="D3" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="28" t="s">
+      <c r="F3" s="25" t="s">
         <v>18</v>
       </c>
       <c r="G3" s="7" t="s">
@@ -2016,15 +2064,15 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="45"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="31" t="s">
+      <c r="A4" s="60"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="18" t="s">
         <v>21</v>
       </c>
       <c r="F4" s="7" t="s">
@@ -2035,265 +2083,265 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="26"/>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
+      <c r="A5" s="23"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="26"/>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
+      <c r="A6" s="23"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="26"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
+      <c r="A7" s="23"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="26"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
+      <c r="A8" s="23"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="26"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
+      <c r="A9" s="23"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="26"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
+      <c r="A10" s="23"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="26"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
+      <c r="A11" s="23"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="26"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
+      <c r="A12" s="23"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="26"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
+      <c r="A13" s="23"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="26"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
+      <c r="A14" s="23"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="26"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
+      <c r="A15" s="23"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="26"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
+      <c r="A16" s="23"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="26"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
+      <c r="A17" s="23"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="26"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
+      <c r="A18" s="23"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="26"/>
-      <c r="B19" s="26"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
+      <c r="A19" s="23"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="26"/>
-      <c r="B20" s="26"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
+      <c r="A20" s="23"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="26"/>
-      <c r="B21" s="26"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
+      <c r="A21" s="23"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="26"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
+      <c r="A22" s="23"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="26"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
+      <c r="A23" s="23"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="26"/>
-      <c r="B24" s="26"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
+      <c r="A24" s="23"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="26"/>
-      <c r="B25" s="26"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
+      <c r="A25" s="23"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="26"/>
-      <c r="B26" s="26"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
+      <c r="A26" s="23"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="26"/>
-      <c r="B27" s="26"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
+      <c r="A27" s="23"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="26"/>
-      <c r="B28" s="26"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="26"/>
+      <c r="A28" s="23"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="26"/>
-      <c r="B29" s="26"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="26"/>
+      <c r="A29" s="23"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="26"/>
-      <c r="B30" s="26"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="26"/>
+      <c r="A30" s="23"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="26"/>
-      <c r="B31" s="26"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="26"/>
+      <c r="A31" s="23"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="26"/>
-      <c r="B32" s="26"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="26"/>
-      <c r="G32" s="26"/>
+      <c r="A32" s="23"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="26"/>
-      <c r="B33" s="26"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="26"/>
-      <c r="G33" s="26"/>
+      <c r="A33" s="23"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2325,57 +2373,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="27" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.6">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="C2" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="43" t="s">
+      <c r="D2" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="32" t="s">
+      <c r="G2" s="29" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="44"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="19" t="s">
+      <c r="A3" s="59"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="18" t="s">
         <v>35</v>
       </c>
       <c r="F3" s="7" t="s">
@@ -2386,11 +2434,11 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="44"/>
-      <c r="B4" s="44"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="20" t="s">
+      <c r="A4" s="59"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="19" t="s">
         <v>8</v>
       </c>
       <c r="F4" s="7" t="s">
@@ -2401,10 +2449,10 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="45"/>
-      <c r="B5" s="45"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
+      <c r="A5" s="60"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="6"/>
@@ -2673,8 +2721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection sqref="A1:G1"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2712,206 +2760,216 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="46"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="7"/>
+      <c r="A2" s="58" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="58" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="58" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="46"/>
-      <c r="B3" s="46"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
+      <c r="A3" s="59"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="46"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
+      <c r="A4" s="59"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="46"/>
-      <c r="B5" s="46"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
+      <c r="A5" s="59"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="46"/>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
+      <c r="A6" s="59"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="46"/>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
+      <c r="A7" s="62"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="46"/>
-      <c r="B8" s="46"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="19"/>
+      <c r="A8" s="30"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="18"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="43"/>
-      <c r="B9" s="43"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="19"/>
+      <c r="A9" s="61"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="18"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="44"/>
-      <c r="B10" s="44"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
+      <c r="A10" s="62"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="44"/>
-      <c r="B11" s="44"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="19"/>
+      <c r="A11" s="62"/>
+      <c r="B11" s="62"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="18"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="44"/>
-      <c r="B12" s="44"/>
+      <c r="A12" s="62"/>
+      <c r="B12" s="62"/>
       <c r="C12" s="16"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="44"/>
-      <c r="B13" s="44"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="19"/>
+      <c r="A13" s="62"/>
+      <c r="B13" s="62"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="18"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="44"/>
-      <c r="B14" s="44"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
+      <c r="A14" s="62"/>
+      <c r="B14" s="62"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="44"/>
-      <c r="B15" s="44"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="19"/>
+      <c r="A15" s="62"/>
+      <c r="B15" s="62"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="18"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="44"/>
-      <c r="B16" s="44"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
+      <c r="A16" s="62"/>
+      <c r="B16" s="62"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="45"/>
-      <c r="B17" s="45"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="19"/>
+      <c r="A17" s="30"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="18"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="43" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="28" t="s">
-        <v>19</v>
-      </c>
+      <c r="A18" s="61"/>
+      <c r="B18" s="61"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="25"/>
       <c r="G18" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="44"/>
-      <c r="B19" s="44"/>
-      <c r="C19" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="F19" s="28" t="s">
-        <v>18</v>
-      </c>
+      <c r="A19" s="62"/>
+      <c r="B19" s="62"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="25"/>
       <c r="G19" s="7" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="45"/>
-      <c r="B20" s="45"/>
-      <c r="C20" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>22</v>
-      </c>
+      <c r="A20" s="30"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="7"/>
       <c r="G20" s="7" t="s">
         <v>23</v>
       </c>
@@ -3033,15 +3091,11 @@
       <c r="G33" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="B2:B8"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="A9:A17"/>
-    <mergeCell ref="B9:B17"/>
-    <mergeCell ref="C5:C7"/>
+  <mergeCells count="4">
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="D2:D6"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -3066,25 +3120,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="27" t="s">
         <v>3</v>
       </c>
     </row>

--- a/Atividade 2 - Lista de variáveis_A.xlsx
+++ b/Atividade 2 - Lista de variáveis_A.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="84">
   <si>
     <t>Class</t>
   </si>
@@ -220,6 +220,57 @@
   </si>
   <si>
     <t>//Receives the chair for barbeiroTeste</t>
+  </si>
+  <si>
+    <t>ReciboControllerTeste</t>
+  </si>
+  <si>
+    <t>ReceiptControllerTest</t>
+  </si>
+  <si>
+    <t>setUpResultControllerTest</t>
+  </si>
+  <si>
+    <t>setBarbeiro</t>
+  </si>
+  <si>
+    <t>setBarber</t>
+  </si>
+  <si>
+    <t>//Receives the barber for ReceiptController</t>
+  </si>
+  <si>
+    <t>setDataFinal</t>
+  </si>
+  <si>
+    <t>setDateFinal</t>
+  </si>
+  <si>
+    <t>//Receives the date final for ReceiptController</t>
+  </si>
+  <si>
+    <t>setDataInicial</t>
+  </si>
+  <si>
+    <t>setDateInitial</t>
+  </si>
+  <si>
+    <t>//Receives the date initial for ReceiptController</t>
+  </si>
+  <si>
+    <t>getInstanceDeReciboDAODeveRetonarInstanciaCorrente</t>
+  </si>
+  <si>
+    <t>getInstanceReciboReturnInstanceCorrente</t>
+  </si>
+  <si>
+    <t>reciboController</t>
+  </si>
+  <si>
+    <t>controllerReceipt</t>
+  </si>
+  <si>
+    <t>//Receives the datas about receipt</t>
   </si>
 </sst>
 </file>
@@ -744,6 +795,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
@@ -793,12 +850,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1644,16 +1695,16 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" thickTop="1">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="55" t="s">
+      <c r="D2" s="57" t="s">
         <v>39</v>
       </c>
       <c r="E2" s="15" t="s">
@@ -1667,10 +1718,10 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" customHeight="1">
-      <c r="A3" s="49"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="56"/>
+      <c r="A3" s="51"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="58"/>
       <c r="E3" s="9" t="s">
         <v>42</v>
       </c>
@@ -1682,10 +1733,10 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="15" customHeight="1">
-      <c r="A4" s="49"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="57"/>
+      <c r="A4" s="51"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="59"/>
       <c r="E4" s="9" t="s">
         <v>44</v>
       </c>
@@ -1697,8 +1748,8 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1">
-      <c r="A5" s="49"/>
-      <c r="B5" s="51"/>
+      <c r="A5" s="51"/>
+      <c r="B5" s="53"/>
       <c r="C5" s="4" t="s">
         <v>47</v>
       </c>
@@ -1830,7 +1881,7 @@
       <c r="D18" s="37"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
-      <c r="G18" s="44"/>
+      <c r="G18" s="46"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="34"/>
@@ -1839,7 +1890,7 @@
       <c r="D19" s="39"/>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
-      <c r="G19" s="45"/>
+      <c r="G19" s="47"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="34"/>
@@ -1848,7 +1899,7 @@
       <c r="D20" s="39"/>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
-      <c r="G20" s="46"/>
+      <c r="G20" s="48"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="34"/>
@@ -1857,7 +1908,7 @@
       <c r="D21" s="39"/>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
-      <c r="G21" s="47"/>
+      <c r="G21" s="49"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="34"/>
@@ -2022,10 +2073,10 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="60" t="s">
         <v>15</v>
       </c>
       <c r="C2" s="24" t="s">
@@ -2045,8 +2096,8 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="59"/>
-      <c r="B3" s="59"/>
+      <c r="A3" s="61"/>
+      <c r="B3" s="61"/>
       <c r="C3" s="20" t="s">
         <v>11</v>
       </c>
@@ -2064,8 +2115,8 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="60"/>
-      <c r="B4" s="60"/>
+      <c r="A4" s="62"/>
+      <c r="B4" s="62"/>
       <c r="C4" s="28" t="s">
         <v>25</v>
       </c>
@@ -2396,16 +2447,16 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.6">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="58" t="s">
+      <c r="C2" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="58" t="s">
+      <c r="D2" s="60" t="s">
         <v>32</v>
       </c>
       <c r="E2" s="18" t="s">
@@ -2419,10 +2470,10 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="59"/>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
+      <c r="A3" s="61"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
       <c r="E3" s="18" t="s">
         <v>35</v>
       </c>
@@ -2434,8 +2485,8 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="59"/>
-      <c r="B4" s="59"/>
+      <c r="A4" s="61"/>
+      <c r="B4" s="61"/>
       <c r="C4" s="30"/>
       <c r="D4" s="31"/>
       <c r="E4" s="19" t="s">
@@ -2449,8 +2500,8 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="60"/>
-      <c r="B5" s="60"/>
+      <c r="A5" s="62"/>
+      <c r="B5" s="62"/>
       <c r="C5" s="28"/>
       <c r="D5" s="28"/>
     </row>
@@ -2722,7 +2773,7 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G6"/>
+      <selection activeCell="A7" sqref="A7:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2760,16 +2811,16 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="58" t="s">
+      <c r="C2" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="D2" s="58" t="s">
+      <c r="D2" s="60" t="s">
         <v>48</v>
       </c>
       <c r="E2" s="18" t="s">
@@ -2783,10 +2834,10 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="59"/>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
+      <c r="A3" s="61"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
       <c r="E3" s="7" t="s">
         <v>57</v>
       </c>
@@ -2798,10 +2849,10 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="59"/>
-      <c r="B4" s="59"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
+      <c r="A4" s="61"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
       <c r="E4" s="18" t="s">
         <v>59</v>
       </c>
@@ -2813,10 +2864,10 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="59"/>
-      <c r="B5" s="59"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
+      <c r="A5" s="61"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
       <c r="E5" s="18" t="s">
         <v>62</v>
       </c>
@@ -2828,10 +2879,10 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="59"/>
-      <c r="B6" s="59"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
+      <c r="A6" s="61"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
       <c r="E6" s="7" t="s">
         <v>64</v>
       </c>
@@ -2843,44 +2894,80 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="62"/>
-      <c r="B7" s="62"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
+      <c r="A7" s="61" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="61" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="60" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="60" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="30"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
+      <c r="A8" s="61"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="61"/>
       <c r="B9" s="61"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="62"/>
-      <c r="B10" s="62"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
+      <c r="A10" s="61"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G10" s="21" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="62"/>
-      <c r="B11" s="62"/>
+      <c r="A11" s="45"/>
+      <c r="B11" s="45"/>
       <c r="C11" s="32"/>
       <c r="D11" s="33"/>
       <c r="E11" s="18"/>
@@ -2888,8 +2975,8 @@
       <c r="G11" s="7"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="62"/>
-      <c r="B12" s="62"/>
+      <c r="A12" s="45"/>
+      <c r="B12" s="45"/>
       <c r="C12" s="16"/>
       <c r="D12" s="33"/>
       <c r="E12" s="17"/>
@@ -2897,8 +2984,8 @@
       <c r="G12" s="21"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="62"/>
-      <c r="B13" s="62"/>
+      <c r="A13" s="45"/>
+      <c r="B13" s="45"/>
       <c r="C13" s="33"/>
       <c r="D13" s="33"/>
       <c r="E13" s="18"/>
@@ -2906,8 +2993,8 @@
       <c r="G13" s="7"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="62"/>
-      <c r="B14" s="62"/>
+      <c r="A14" s="45"/>
+      <c r="B14" s="45"/>
       <c r="C14" s="33"/>
       <c r="D14" s="33"/>
       <c r="E14" s="17"/>
@@ -2915,8 +3002,8 @@
       <c r="G14" s="21"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="62"/>
-      <c r="B15" s="62"/>
+      <c r="A15" s="45"/>
+      <c r="B15" s="45"/>
       <c r="C15" s="33"/>
       <c r="D15" s="33"/>
       <c r="E15" s="18"/>
@@ -2924,8 +3011,8 @@
       <c r="G15" s="7"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="62"/>
-      <c r="B16" s="62"/>
+      <c r="A16" s="45"/>
+      <c r="B16" s="45"/>
       <c r="C16" s="33"/>
       <c r="D16" s="33"/>
       <c r="E16" s="17"/>
@@ -2942,8 +3029,8 @@
       <c r="G17" s="7"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="61"/>
-      <c r="B18" s="61"/>
+      <c r="A18" s="44"/>
+      <c r="B18" s="44"/>
       <c r="C18" s="24"/>
       <c r="D18" s="22"/>
       <c r="E18" s="18"/>
@@ -2953,8 +3040,8 @@
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="62"/>
-      <c r="B19" s="62"/>
+      <c r="A19" s="45"/>
+      <c r="B19" s="45"/>
       <c r="C19" s="20"/>
       <c r="D19" s="22"/>
       <c r="E19" s="17"/>
@@ -3091,11 +3178,15 @@
       <c r="G33" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="8">
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="B2:B6"/>
     <mergeCell ref="C2:C6"/>
     <mergeCell ref="D2:D6"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="D7:D9"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/Atividade 2 - Lista de variáveis_A.xlsx
+++ b/Atividade 2 - Lista de variáveis_A.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="87">
   <si>
     <t>Class</t>
   </si>
@@ -271,6 +271,15 @@
   </si>
   <si>
     <t>//Receives the datas about receipt</t>
+  </si>
+  <si>
+    <t>AgendaTeste</t>
+  </si>
+  <si>
+    <t>TestPhonebook</t>
+  </si>
+  <si>
+    <t>setUpTestPhonebook</t>
   </si>
 </sst>
 </file>
@@ -687,7 +696,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -719,9 +728,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -758,97 +764,97 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1168,25 +1174,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="26" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1672,39 +1678,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18.600000000000001" thickBot="1">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="26" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" thickTop="1">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="54" t="s">
+      <c r="C2" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="57" t="s">
+      <c r="D2" s="55" t="s">
         <v>39</v>
       </c>
       <c r="E2" s="15" t="s">
@@ -1718,10 +1724,10 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" customHeight="1">
-      <c r="A3" s="51"/>
-      <c r="B3" s="53"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="58"/>
+      <c r="A3" s="49"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="56"/>
       <c r="E3" s="9" t="s">
         <v>42</v>
       </c>
@@ -1733,10 +1739,10 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="15" customHeight="1">
-      <c r="A4" s="51"/>
-      <c r="B4" s="53"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="59"/>
+      <c r="A4" s="49"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="57"/>
       <c r="E4" s="9" t="s">
         <v>44</v>
       </c>
@@ -1748,8 +1754,8 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1">
-      <c r="A5" s="51"/>
-      <c r="B5" s="53"/>
+      <c r="A5" s="49"/>
+      <c r="B5" s="51"/>
       <c r="C5" s="4" t="s">
         <v>47</v>
       </c>
@@ -1767,8 +1773,8 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="15" customHeight="1">
-      <c r="A6" s="34"/>
-      <c r="B6" s="35"/>
+      <c r="A6" s="32"/>
+      <c r="B6" s="33"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="9"/>
@@ -1776,8 +1782,8 @@
       <c r="G6" s="7"/>
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1">
-      <c r="A7" s="34"/>
-      <c r="B7" s="35"/>
+      <c r="A7" s="32"/>
+      <c r="B7" s="33"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="9"/>
@@ -1785,8 +1791,8 @@
       <c r="G7" s="7"/>
     </row>
     <row r="8" spans="1:7" ht="15" customHeight="1">
-      <c r="A8" s="34"/>
-      <c r="B8" s="35"/>
+      <c r="A8" s="32"/>
+      <c r="B8" s="33"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="9"/>
@@ -1794,8 +1800,8 @@
       <c r="G8" s="7"/>
     </row>
     <row r="9" spans="1:7" ht="15" customHeight="1">
-      <c r="A9" s="34"/>
-      <c r="B9" s="35"/>
+      <c r="A9" s="32"/>
+      <c r="B9" s="33"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="10"/>
@@ -1803,8 +1809,8 @@
       <c r="G9" s="7"/>
     </row>
     <row r="10" spans="1:7" ht="15" customHeight="1">
-      <c r="A10" s="34"/>
-      <c r="B10" s="35"/>
+      <c r="A10" s="32"/>
+      <c r="B10" s="33"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="11"/>
@@ -1812,8 +1818,8 @@
       <c r="G10" s="7"/>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1">
-      <c r="A11" s="34"/>
-      <c r="B11" s="35"/>
+      <c r="A11" s="32"/>
+      <c r="B11" s="33"/>
       <c r="C11" s="4"/>
       <c r="D11" s="5"/>
       <c r="E11" s="12"/>
@@ -1821,8 +1827,8 @@
       <c r="G11" s="7"/>
     </row>
     <row r="12" spans="1:7" ht="15" customHeight="1">
-      <c r="A12" s="34"/>
-      <c r="B12" s="35"/>
+      <c r="A12" s="32"/>
+      <c r="B12" s="33"/>
       <c r="C12" s="4"/>
       <c r="D12" s="5"/>
       <c r="E12" s="12"/>
@@ -1830,8 +1836,8 @@
       <c r="G12" s="7"/>
     </row>
     <row r="13" spans="1:7" ht="15" customHeight="1">
-      <c r="A13" s="34"/>
-      <c r="B13" s="35"/>
+      <c r="A13" s="32"/>
+      <c r="B13" s="33"/>
       <c r="C13" s="4"/>
       <c r="D13" s="5"/>
       <c r="E13" s="12"/>
@@ -1839,8 +1845,8 @@
       <c r="G13" s="7"/>
     </row>
     <row r="14" spans="1:7" ht="15" customHeight="1">
-      <c r="A14" s="34"/>
-      <c r="B14" s="35"/>
+      <c r="A14" s="32"/>
+      <c r="B14" s="33"/>
       <c r="C14" s="4"/>
       <c r="D14" s="5"/>
       <c r="E14" s="13"/>
@@ -1848,8 +1854,8 @@
       <c r="G14" s="7"/>
     </row>
     <row r="15" spans="1:7" ht="15" customHeight="1">
-      <c r="A15" s="34"/>
-      <c r="B15" s="35"/>
+      <c r="A15" s="32"/>
+      <c r="B15" s="33"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="9"/>
@@ -1857,8 +1863,8 @@
       <c r="G15" s="7"/>
     </row>
     <row r="16" spans="1:7" ht="15" customHeight="1">
-      <c r="A16" s="34"/>
-      <c r="B16" s="35"/>
+      <c r="A16" s="32"/>
+      <c r="B16" s="33"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="9"/>
@@ -1866,8 +1872,8 @@
       <c r="G16" s="7"/>
     </row>
     <row r="17" spans="1:7" ht="15" customHeight="1">
-      <c r="A17" s="34"/>
-      <c r="B17" s="35"/>
+      <c r="A17" s="32"/>
+      <c r="B17" s="33"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="9"/>
@@ -1875,82 +1881,82 @@
       <c r="G17" s="7"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="34"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="37"/>
+      <c r="A18" s="32"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="35"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
-      <c r="G18" s="46"/>
+      <c r="G18" s="44"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="34"/>
-      <c r="B19" s="35"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="39"/>
+      <c r="A19" s="32"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="37"/>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
-      <c r="G19" s="47"/>
+      <c r="G19" s="45"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="34"/>
-      <c r="B20" s="35"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="39"/>
+      <c r="A20" s="32"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="37"/>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
-      <c r="G20" s="48"/>
+      <c r="G20" s="46"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="34"/>
-      <c r="B21" s="35"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="39"/>
+      <c r="A21" s="32"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="37"/>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
-      <c r="G21" s="49"/>
+      <c r="G21" s="47"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="34"/>
-      <c r="B22" s="35"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="39"/>
+      <c r="A22" s="32"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="37"/>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="34"/>
-      <c r="B23" s="35"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="39"/>
+      <c r="A23" s="32"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="37"/>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="34"/>
-      <c r="B24" s="35"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="39"/>
+      <c r="A24" s="32"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="37"/>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="34"/>
-      <c r="B25" s="35"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="39"/>
+      <c r="A25" s="32"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="37"/>
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="40"/>
-      <c r="B26" s="41"/>
-      <c r="C26" s="42"/>
-      <c r="D26" s="43"/>
+      <c r="A26" s="38"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="41"/>
       <c r="E26" s="7"/>
       <c r="G26" s="7"/>
     </row>
@@ -2040,55 +2046,55 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="40.44140625" style="26" customWidth="1"/>
-    <col min="2" max="2" width="39.5546875" style="26" customWidth="1"/>
-    <col min="3" max="3" width="29.88671875" style="26" customWidth="1"/>
-    <col min="4" max="4" width="36.109375" style="26" customWidth="1"/>
-    <col min="5" max="5" width="33.6640625" style="26" customWidth="1"/>
-    <col min="6" max="6" width="29.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.77734375" style="26" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.44140625" style="25" customWidth="1"/>
+    <col min="2" max="2" width="39.5546875" style="25" customWidth="1"/>
+    <col min="3" max="3" width="29.88671875" style="25" customWidth="1"/>
+    <col min="4" max="4" width="36.109375" style="25" customWidth="1"/>
+    <col min="5" max="5" width="33.6640625" style="25" customWidth="1"/>
+    <col min="6" max="6" width="29.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.77734375" style="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="26" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="F2" s="24" t="s">
         <v>19</v>
       </c>
       <c r="G2" s="7" t="s">
@@ -2096,18 +2102,18 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="61"/>
-      <c r="B3" s="61"/>
-      <c r="C3" s="20" t="s">
+      <c r="A3" s="59"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="25" t="s">
+      <c r="F3" s="24" t="s">
         <v>18</v>
       </c>
       <c r="G3" s="7" t="s">
@@ -2115,15 +2121,15 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="62"/>
-      <c r="B4" s="62"/>
-      <c r="C4" s="28" t="s">
+      <c r="A4" s="60"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="17" t="s">
         <v>21</v>
       </c>
       <c r="F4" s="7" t="s">
@@ -2134,265 +2140,265 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="23"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
+      <c r="A5" s="22"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="23"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
+      <c r="A6" s="22"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="23"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
+      <c r="A7" s="22"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="23"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="23"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
+      <c r="A9" s="22"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="23"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="23"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
+      <c r="A11" s="22"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="23"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
+      <c r="A12" s="22"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="23"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
+      <c r="A13" s="22"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="23"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
+      <c r="A14" s="22"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="23"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
+      <c r="A15" s="22"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="23"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
+      <c r="A16" s="22"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="23"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
+      <c r="A17" s="22"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="23"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
+      <c r="A18" s="22"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="23"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
+      <c r="A19" s="22"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="23"/>
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
+      <c r="A20" s="22"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="23"/>
-      <c r="B21" s="23"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
+      <c r="A21" s="22"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="23"/>
-      <c r="B22" s="23"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
+      <c r="A22" s="22"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="23"/>
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
+      <c r="A23" s="22"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="23"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
+      <c r="A24" s="22"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="23"/>
-      <c r="B25" s="23"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
+      <c r="A25" s="22"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="23"/>
-      <c r="B26" s="23"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
+      <c r="A26" s="22"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="23"/>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
+      <c r="A27" s="22"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="23"/>
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
+      <c r="A28" s="22"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="23"/>
-      <c r="B29" s="23"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
+      <c r="A29" s="22"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="23"/>
-      <c r="B30" s="23"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
+      <c r="A30" s="22"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="23"/>
-      <c r="B31" s="23"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
+      <c r="A31" s="22"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="23"/>
-      <c r="B32" s="23"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
+      <c r="A32" s="22"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="22"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="23"/>
-      <c r="B33" s="23"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="23"/>
+      <c r="A33" s="22"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2424,57 +2430,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="26" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.6">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="60" t="s">
+      <c r="C2" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="60" t="s">
+      <c r="D2" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="29" t="s">
+      <c r="G2" s="28" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="61"/>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="18" t="s">
+      <c r="A3" s="59"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="17" t="s">
         <v>35</v>
       </c>
       <c r="F3" s="7" t="s">
@@ -2485,11 +2491,11 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="61"/>
-      <c r="B4" s="61"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="19" t="s">
+      <c r="A4" s="59"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="18" t="s">
         <v>8</v>
       </c>
       <c r="F4" s="7" t="s">
@@ -2500,10 +2506,10 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="62"/>
-      <c r="B5" s="62"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
+      <c r="A5" s="60"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="6"/>
@@ -2773,7 +2779,7 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:G10"/>
+      <selection activeCell="A11" sqref="A11:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2811,22 +2817,22 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="60" t="s">
+      <c r="C2" s="58" t="s">
         <v>53</v>
       </c>
-      <c r="D2" s="60" t="s">
+      <c r="D2" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="17" t="s">
         <v>55</v>
       </c>
       <c r="G2" s="7" t="s">
@@ -2834,10 +2840,10 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="61"/>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
+      <c r="A3" s="59"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
       <c r="E3" s="7" t="s">
         <v>57</v>
       </c>
@@ -2849,11 +2855,11 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="61"/>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="18" t="s">
+      <c r="A4" s="59"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="17" t="s">
         <v>59</v>
       </c>
       <c r="F4" s="7" t="s">
@@ -2864,11 +2870,11 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="61"/>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="18" t="s">
+      <c r="A5" s="59"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="17" t="s">
         <v>62</v>
       </c>
       <c r="F5" s="7" t="s">
@@ -2879,10 +2885,10 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="61"/>
-      <c r="B6" s="61"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
+      <c r="A6" s="59"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
       <c r="E6" s="7" t="s">
         <v>64</v>
       </c>
@@ -2894,16 +2900,16 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="61" t="s">
+      <c r="A7" s="59" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="61" t="s">
+      <c r="B7" s="59" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="60" t="s">
+      <c r="C7" s="58" t="s">
         <v>53</v>
       </c>
-      <c r="D7" s="60" t="s">
+      <c r="D7" s="58" t="s">
         <v>69</v>
       </c>
       <c r="E7" s="7" t="s">
@@ -2917,11 +2923,11 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="61"/>
-      <c r="B8" s="61"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="18" t="s">
+      <c r="A8" s="59"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="17" t="s">
         <v>73</v>
       </c>
       <c r="F8" s="7" t="s">
@@ -2932,11 +2938,11 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="61"/>
-      <c r="B9" s="61"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="18" t="s">
+      <c r="A9" s="59"/>
+      <c r="B9" s="59"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="17" t="s">
         <v>76</v>
       </c>
       <c r="F9" s="7" t="s">
@@ -2947,115 +2953,135 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="61"/>
-      <c r="B10" s="61"/>
-      <c r="C10" s="45" t="s">
+      <c r="A10" s="59"/>
+      <c r="B10" s="59"/>
+      <c r="C10" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="D10" s="45" t="s">
+      <c r="D10" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="F10" s="21" t="s">
+      <c r="F10" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="G10" s="21" t="s">
+      <c r="G10" s="20" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="45"/>
-      <c r="B11" s="45"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
+      <c r="A11" s="61" t="s">
+        <v>84</v>
+      </c>
+      <c r="B11" s="61" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="61" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="61" t="s">
+        <v>86</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="45"/>
-      <c r="B12" s="45"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
+      <c r="A12" s="61"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="45"/>
-      <c r="B13" s="45"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="18"/>
+      <c r="A13" s="43"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="17"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="45"/>
-      <c r="B14" s="45"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
+      <c r="A14" s="43"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="45"/>
-      <c r="B15" s="45"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="18"/>
+      <c r="A15" s="43"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="17"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="45"/>
-      <c r="B16" s="45"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
+      <c r="A16" s="43"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="30"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="18"/>
+      <c r="A17" s="29"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="17"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="44"/>
-      <c r="B18" s="44"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="25"/>
+      <c r="A18" s="42"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="24"/>
       <c r="G18" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="45"/>
-      <c r="B19" s="45"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="25"/>
+      <c r="A19" s="43"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="24"/>
       <c r="G19" s="7" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="30"/>
-      <c r="B20" s="30"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="18"/>
+      <c r="A20" s="29"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="17"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7" t="s">
         <v>23</v>
@@ -3178,7 +3204,11 @@
       <c r="G33" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="12">
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="B2:B6"/>
     <mergeCell ref="C2:C6"/>
@@ -3211,25 +3241,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="26" t="s">
         <v>3</v>
       </c>
     </row>

--- a/Atividade 2 - Lista de variáveis_A.xlsx
+++ b/Atividade 2 - Lista de variáveis_A.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="15156" windowHeight="7992" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="15156" windowHeight="7992"/>
   </bookViews>
   <sheets>
     <sheet name="View" sheetId="7" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="120">
   <si>
     <t>Class</t>
   </si>
@@ -280,6 +280,105 @@
   </si>
   <si>
     <t>setUpTestPhonebook</t>
+  </si>
+  <si>
+    <t>CadastrarTipoServico</t>
+  </si>
+  <si>
+    <t>IncludeTypeService</t>
+  </si>
+  <si>
+    <t>contentPane</t>
+  </si>
+  <si>
+    <t>receiptPanel</t>
+  </si>
+  <si>
+    <t>// Jpanel class instance to create the panel of generate receipt</t>
+  </si>
+  <si>
+    <t>run</t>
+  </si>
+  <si>
+    <t>no suggestion</t>
+  </si>
+  <si>
+    <t>frame</t>
+  </si>
+  <si>
+    <t>// No suggestion</t>
+  </si>
+  <si>
+    <t>//Generate Receipt class instance</t>
+  </si>
+  <si>
+    <t>dados</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>//Receives the data from name and price</t>
+  </si>
+  <si>
+    <t>mouseClicked</t>
+  </si>
+  <si>
+    <t>nameMouseCliked</t>
+  </si>
+  <si>
+    <t>//Receives the name for remove a type of service</t>
+  </si>
+  <si>
+    <t>confirmacao</t>
+  </si>
+  <si>
+    <t>confirmation</t>
+  </si>
+  <si>
+    <t>//checks if the name is null</t>
+  </si>
+  <si>
+    <t>PesquisarServicoPrestado</t>
+  </si>
+  <si>
+    <t>SearchServiceProvided</t>
+  </si>
+  <si>
+    <t>textField</t>
+  </si>
+  <si>
+    <t>//Constant that writes on the service provided</t>
+  </si>
+  <si>
+    <t>actionPerfomed</t>
+  </si>
+  <si>
+    <t>//Receives the name for search service provided</t>
+  </si>
+  <si>
+    <t>barbeiro</t>
+  </si>
+  <si>
+    <t>barberMouseCliked</t>
+  </si>
+  <si>
+    <t>//Receives the name for remove service provided</t>
+  </si>
+  <si>
+    <t>valor</t>
+  </si>
+  <si>
+    <t>valueMouseCliked</t>
+  </si>
+  <si>
+    <t>//Receives the value for remove service provided</t>
+  </si>
+  <si>
+    <t>dateMouseCliked</t>
+  </si>
+  <si>
+    <t>//Receives the data for remove service provided</t>
   </si>
 </sst>
 </file>
@@ -696,7 +795,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -803,6 +902,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -856,6 +964,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1158,8 +1271,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:G1"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1170,7 +1283,7 @@
     <col min="4" max="4" width="30.88671875" customWidth="1"/>
     <col min="5" max="5" width="43.33203125" customWidth="1"/>
     <col min="6" max="6" width="32.6640625" customWidth="1"/>
-    <col min="7" max="7" width="25.88671875" customWidth="1"/>
+    <col min="7" max="7" width="52.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18">
@@ -1197,166 +1310,298 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
+      <c r="A2" s="64" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="64" t="s">
+        <v>88</v>
+      </c>
       <c r="C2" s="7"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="7"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
+      <c r="A3" s="64"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="46"/>
       <c r="D3" s="7"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
+      <c r="E3" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
+      <c r="A4" s="64"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" s="64" t="s">
+        <v>93</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.6">
+      <c r="A5" s="64"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="65" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
+      <c r="A6" s="64"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
+      <c r="A7" s="64"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="64" t="s">
+        <v>100</v>
+      </c>
+      <c r="D7" s="64" t="s">
+        <v>95</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="66" t="s">
+        <v>101</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
+      <c r="A8" s="64"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="46" t="s">
+        <v>103</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
+      <c r="A9" s="61" t="s">
+        <v>106</v>
+      </c>
+      <c r="B9" s="61" t="s">
+        <v>107</v>
+      </c>
+      <c r="C9" s="45"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="67" t="s">
+        <v>89</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
+      <c r="A10" s="62"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
+      <c r="A11" s="62"/>
+      <c r="B11" s="62"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
+      <c r="A12" s="62"/>
+      <c r="B12" s="62"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
+      <c r="A13" s="62"/>
+      <c r="B13" s="62"/>
+      <c r="C13" s="61" t="s">
+        <v>110</v>
+      </c>
+      <c r="D13" s="61" t="s">
+        <v>95</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15.6">
+      <c r="A14" s="62"/>
+      <c r="B14" s="62"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" s="65" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
+      <c r="A15" s="62"/>
+      <c r="B15" s="62"/>
+      <c r="C15" s="61" t="s">
+        <v>100</v>
+      </c>
+      <c r="D15" s="61" t="s">
+        <v>95</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="66" t="s">
+        <v>101</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
+      <c r="A16" s="62"/>
+      <c r="B16" s="62"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="F16" s="66" t="s">
+        <v>113</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
+      <c r="A17" s="62"/>
+      <c r="B17" s="62"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="F17" s="66" t="s">
+        <v>116</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
+      <c r="A18" s="62"/>
+      <c r="B18" s="62"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="F18" s="66" t="s">
+        <v>118</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
+      <c r="A19" s="63"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="6"/>
@@ -1653,6 +1898,20 @@
       <c r="E57" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A9:A19"/>
+    <mergeCell ref="B9:B19"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="C15:C19"/>
+    <mergeCell ref="D15:D19"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="B2:B8"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -1701,16 +1960,16 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" thickTop="1">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="55" t="s">
+      <c r="D2" s="58" t="s">
         <v>39</v>
       </c>
       <c r="E2" s="15" t="s">
@@ -1724,10 +1983,10 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" customHeight="1">
-      <c r="A3" s="49"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="56"/>
+      <c r="A3" s="52"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="59"/>
       <c r="E3" s="9" t="s">
         <v>42</v>
       </c>
@@ -1739,10 +1998,10 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="15" customHeight="1">
-      <c r="A4" s="49"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="57"/>
+      <c r="A4" s="52"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="60"/>
       <c r="E4" s="9" t="s">
         <v>44</v>
       </c>
@@ -1754,8 +2013,8 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1">
-      <c r="A5" s="49"/>
-      <c r="B5" s="51"/>
+      <c r="A5" s="52"/>
+      <c r="B5" s="54"/>
       <c r="C5" s="4" t="s">
         <v>47</v>
       </c>
@@ -1887,7 +2146,7 @@
       <c r="D18" s="35"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
-      <c r="G18" s="44"/>
+      <c r="G18" s="47"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="32"/>
@@ -1896,7 +2155,7 @@
       <c r="D19" s="37"/>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
-      <c r="G19" s="45"/>
+      <c r="G19" s="48"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="32"/>
@@ -1905,7 +2164,7 @@
       <c r="D20" s="37"/>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
-      <c r="G20" s="46"/>
+      <c r="G20" s="49"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="32"/>
@@ -1914,7 +2173,7 @@
       <c r="D21" s="37"/>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
-      <c r="G21" s="47"/>
+      <c r="G21" s="50"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="32"/>
@@ -2079,10 +2338,10 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="61" t="s">
         <v>15</v>
       </c>
       <c r="C2" s="23" t="s">
@@ -2102,8 +2361,8 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="59"/>
-      <c r="B3" s="59"/>
+      <c r="A3" s="62"/>
+      <c r="B3" s="62"/>
       <c r="C3" s="19" t="s">
         <v>11</v>
       </c>
@@ -2121,8 +2380,8 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="60"/>
-      <c r="B4" s="60"/>
+      <c r="A4" s="63"/>
+      <c r="B4" s="63"/>
       <c r="C4" s="27" t="s">
         <v>25</v>
       </c>
@@ -2453,16 +2712,16 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.6">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="58" t="s">
+      <c r="C2" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="58" t="s">
+      <c r="D2" s="61" t="s">
         <v>32</v>
       </c>
       <c r="E2" s="17" t="s">
@@ -2476,10 +2735,10 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="59"/>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
+      <c r="A3" s="62"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
       <c r="E3" s="17" t="s">
         <v>35</v>
       </c>
@@ -2491,8 +2750,8 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="59"/>
-      <c r="B4" s="59"/>
+      <c r="A4" s="62"/>
+      <c r="B4" s="62"/>
       <c r="C4" s="29"/>
       <c r="D4" s="30"/>
       <c r="E4" s="18" t="s">
@@ -2506,8 +2765,8 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="60"/>
-      <c r="B5" s="60"/>
+      <c r="A5" s="63"/>
+      <c r="B5" s="63"/>
       <c r="C5" s="27"/>
       <c r="D5" s="27"/>
     </row>
@@ -2778,7 +3037,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="A11" sqref="A11:G12"/>
     </sheetView>
   </sheetViews>
@@ -2817,16 +3076,16 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="61" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="61" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="58" t="s">
+      <c r="C2" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="D2" s="58" t="s">
+      <c r="D2" s="61" t="s">
         <v>48</v>
       </c>
       <c r="E2" s="17" t="s">
@@ -2840,10 +3099,10 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="59"/>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
+      <c r="A3" s="62"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
       <c r="E3" s="7" t="s">
         <v>57</v>
       </c>
@@ -2855,10 +3114,10 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="59"/>
-      <c r="B4" s="59"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
+      <c r="A4" s="62"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
       <c r="E4" s="17" t="s">
         <v>59</v>
       </c>
@@ -2870,10 +3129,10 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="59"/>
-      <c r="B5" s="59"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
+      <c r="A5" s="62"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
       <c r="E5" s="17" t="s">
         <v>62</v>
       </c>
@@ -2885,10 +3144,10 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="59"/>
-      <c r="B6" s="59"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
+      <c r="A6" s="62"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
       <c r="E6" s="7" t="s">
         <v>64</v>
       </c>
@@ -2900,16 +3159,16 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="59" t="s">
+      <c r="A7" s="62" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="59" t="s">
+      <c r="B7" s="62" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="D7" s="58" t="s">
+      <c r="D7" s="61" t="s">
         <v>69</v>
       </c>
       <c r="E7" s="7" t="s">
@@ -2923,10 +3182,10 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="59"/>
-      <c r="B8" s="59"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
+      <c r="A8" s="62"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
       <c r="E8" s="17" t="s">
         <v>73</v>
       </c>
@@ -2938,10 +3197,10 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="59"/>
-      <c r="B9" s="59"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="59"/>
+      <c r="A9" s="62"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
       <c r="E9" s="17" t="s">
         <v>76</v>
       </c>
@@ -2953,8 +3212,8 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="59"/>
-      <c r="B10" s="59"/>
+      <c r="A10" s="62"/>
+      <c r="B10" s="62"/>
       <c r="C10" s="43" t="s">
         <v>79</v>
       </c>
@@ -2972,16 +3231,16 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="61" t="s">
+      <c r="A11" s="64" t="s">
         <v>84</v>
       </c>
-      <c r="B11" s="61" t="s">
+      <c r="B11" s="64" t="s">
         <v>85</v>
       </c>
-      <c r="C11" s="61" t="s">
+      <c r="C11" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="61" t="s">
+      <c r="D11" s="64" t="s">
         <v>86</v>
       </c>
       <c r="E11" s="17" t="s">
@@ -2995,10 +3254,10 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="61"/>
-      <c r="B12" s="61"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="61"/>
+      <c r="A12" s="64"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="64"/>
       <c r="E12" s="17" t="s">
         <v>59</v>
       </c>

--- a/Atividade 2 - Lista de variáveis_A.xlsx
+++ b/Atividade 2 - Lista de variáveis_A.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="150">
   <si>
     <t>Class</t>
   </si>
@@ -379,6 +379,96 @@
   </si>
   <si>
     <t>//Receives the data for remove service provided</t>
+  </si>
+  <si>
+    <t>VisualizarRelatórios</t>
+  </si>
+  <si>
+    <t>ViewResult</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>ValueTotalBuy</t>
+  </si>
+  <si>
+    <t>//Show the value total of service</t>
+  </si>
+  <si>
+    <t>numero</t>
+  </si>
+  <si>
+    <t>numberCliente</t>
+  </si>
+  <si>
+    <t>//Show the number of clients</t>
+  </si>
+  <si>
+    <t>servicos</t>
+  </si>
+  <si>
+    <t>typeService</t>
+  </si>
+  <si>
+    <t>// Show the type of service</t>
+  </si>
+  <si>
+    <t>contador</t>
+  </si>
+  <si>
+    <t>conterService</t>
+  </si>
+  <si>
+    <t>//Show the numbers of service for a cliente</t>
+  </si>
+  <si>
+    <t>numeroTotalDeServicos</t>
+  </si>
+  <si>
+    <t>numberTotalService</t>
+  </si>
+  <si>
+    <t>//Show the numbers of total service</t>
+  </si>
+  <si>
+    <t>valorTotalDoServico</t>
+  </si>
+  <si>
+    <t>valueTotalService</t>
+  </si>
+  <si>
+    <t>valorTotalASerPAgo</t>
+  </si>
+  <si>
+    <t>valueTotalPay</t>
+  </si>
+  <si>
+    <t>//Show the value for pay</t>
+  </si>
+  <si>
+    <t>total2</t>
+  </si>
+  <si>
+    <t>valueTotalBuyPay</t>
+  </si>
+  <si>
+    <t>VisualizarRelatorios</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>//Utilized for whiles</t>
+  </si>
+  <si>
+    <t>cds</t>
+  </si>
+  <si>
+    <t>createDataSet</t>
+  </si>
+  <si>
+    <t>//Utilizes for invoke the data for result</t>
   </si>
 </sst>
 </file>
@@ -795,7 +885,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -911,57 +1001,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -969,6 +1008,60 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1272,7 +1365,7 @@
   <dimension ref="A1:G57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:G19"/>
+      <selection activeCell="A20" sqref="A20:G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1310,10 +1403,10 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="54" t="s">
         <v>87</v>
       </c>
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="54" t="s">
         <v>88</v>
       </c>
       <c r="C2" s="7"/>
@@ -1329,8 +1422,8 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="64"/>
-      <c r="B3" s="64"/>
+      <c r="A3" s="54"/>
+      <c r="B3" s="54"/>
       <c r="C3" s="46"/>
       <c r="D3" s="7"/>
       <c r="E3" s="7" t="s">
@@ -1344,12 +1437,12 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="64"/>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64" t="s">
+      <c r="A4" s="54"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54" t="s">
         <v>92</v>
       </c>
-      <c r="D4" s="64" t="s">
+      <c r="D4" s="54" t="s">
         <v>93</v>
       </c>
       <c r="E4" s="17" t="s">
@@ -1363,25 +1456,25 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.6">
-      <c r="A5" s="64"/>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
+      <c r="A5" s="54"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
       <c r="E5" s="17" t="s">
         <v>12</v>
       </c>
       <c r="F5" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="65" t="s">
+      <c r="G5" s="48" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="64"/>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
+      <c r="A6" s="54"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
       <c r="E6" s="46" t="s">
         <v>97</v>
       </c>
@@ -1393,18 +1486,18 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="64"/>
-      <c r="B7" s="64"/>
-      <c r="C7" s="64" t="s">
+      <c r="A7" s="54"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54" t="s">
         <v>100</v>
       </c>
-      <c r="D7" s="64" t="s">
+      <c r="D7" s="54" t="s">
         <v>95</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="66" t="s">
+      <c r="F7" s="49" t="s">
         <v>101</v>
       </c>
       <c r="G7" s="7" t="s">
@@ -1412,10 +1505,10 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="64"/>
-      <c r="B8" s="64"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
+      <c r="A8" s="54"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
       <c r="E8" s="46" t="s">
         <v>103</v>
       </c>
@@ -1427,15 +1520,15 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="61" t="s">
+      <c r="A9" s="51" t="s">
         <v>106</v>
       </c>
-      <c r="B9" s="61" t="s">
+      <c r="B9" s="51" t="s">
         <v>107</v>
       </c>
       <c r="C9" s="45"/>
       <c r="D9" s="44"/>
-      <c r="E9" s="67" t="s">
+      <c r="E9" s="50" t="s">
         <v>89</v>
       </c>
       <c r="F9" s="7" t="s">
@@ -1446,8 +1539,8 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="62"/>
-      <c r="B10" s="62"/>
+      <c r="A10" s="52"/>
+      <c r="B10" s="52"/>
       <c r="C10" s="46"/>
       <c r="D10" s="17"/>
       <c r="E10" s="17" t="s">
@@ -1461,8 +1554,8 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="62"/>
-      <c r="B11" s="62"/>
+      <c r="A11" s="52"/>
+      <c r="B11" s="52"/>
       <c r="C11" s="46"/>
       <c r="D11" s="17"/>
       <c r="E11" s="17" t="s">
@@ -1476,8 +1569,8 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="62"/>
-      <c r="B12" s="62"/>
+      <c r="A12" s="52"/>
+      <c r="B12" s="52"/>
       <c r="C12" s="46"/>
       <c r="D12" s="17"/>
       <c r="E12" s="17" t="s">
@@ -1491,12 +1584,12 @@
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="62"/>
-      <c r="B13" s="62"/>
-      <c r="C13" s="61" t="s">
+      <c r="A13" s="52"/>
+      <c r="B13" s="52"/>
+      <c r="C13" s="51" t="s">
         <v>110</v>
       </c>
-      <c r="D13" s="61" t="s">
+      <c r="D13" s="51" t="s">
         <v>95</v>
       </c>
       <c r="E13" s="17" t="s">
@@ -1510,33 +1603,33 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="15.6">
-      <c r="A14" s="62"/>
-      <c r="B14" s="62"/>
-      <c r="C14" s="63"/>
-      <c r="D14" s="63"/>
+      <c r="A14" s="52"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
       <c r="E14" s="17" t="s">
         <v>12</v>
       </c>
       <c r="F14" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="G14" s="65" t="s">
+      <c r="G14" s="48" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="62"/>
-      <c r="B15" s="62"/>
-      <c r="C15" s="61" t="s">
+      <c r="A15" s="52"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="D15" s="61" t="s">
+      <c r="D15" s="51" t="s">
         <v>95</v>
       </c>
       <c r="E15" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F15" s="66" t="s">
+      <c r="F15" s="49" t="s">
         <v>101</v>
       </c>
       <c r="G15" s="7" t="s">
@@ -1544,14 +1637,14 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="62"/>
-      <c r="B16" s="62"/>
-      <c r="C16" s="62"/>
-      <c r="D16" s="62"/>
+      <c r="A16" s="52"/>
+      <c r="B16" s="52"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="52"/>
       <c r="E16" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="F16" s="66" t="s">
+      <c r="F16" s="49" t="s">
         <v>113</v>
       </c>
       <c r="G16" s="7" t="s">
@@ -1559,14 +1652,14 @@
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="62"/>
-      <c r="B17" s="62"/>
-      <c r="C17" s="62"/>
-      <c r="D17" s="62"/>
+      <c r="A17" s="52"/>
+      <c r="B17" s="52"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="52"/>
       <c r="E17" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="F17" s="66" t="s">
+      <c r="F17" s="49" t="s">
         <v>116</v>
       </c>
       <c r="G17" s="7" t="s">
@@ -1574,14 +1667,14 @@
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="62"/>
-      <c r="B18" s="62"/>
-      <c r="C18" s="62"/>
-      <c r="D18" s="62"/>
+      <c r="A18" s="52"/>
+      <c r="B18" s="52"/>
+      <c r="C18" s="52"/>
+      <c r="D18" s="52"/>
       <c r="E18" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="F18" s="66" t="s">
+      <c r="F18" s="49" t="s">
         <v>118</v>
       </c>
       <c r="G18" s="7" t="s">
@@ -1589,10 +1682,10 @@
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="63"/>
-      <c r="B19" s="63"/>
-      <c r="C19" s="63"/>
-      <c r="D19" s="63"/>
+      <c r="A19" s="53"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="53"/>
       <c r="E19" s="17" t="s">
         <v>103</v>
       </c>
@@ -1604,130 +1697,222 @@
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
+      <c r="A20" s="51" t="s">
+        <v>120</v>
+      </c>
+      <c r="B20" s="51" t="s">
+        <v>121</v>
+      </c>
+      <c r="C20" s="47"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
+      <c r="A21" s="52"/>
+      <c r="B21" s="52"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
+      <c r="A22" s="52"/>
+      <c r="B22" s="52"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
+      <c r="A23" s="52"/>
+      <c r="B23" s="52"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
+      <c r="A24" s="52"/>
+      <c r="B24" s="52"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
+      <c r="A25" s="52"/>
+      <c r="B25" s="52"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
+      <c r="A26" s="52"/>
+      <c r="B26" s="52"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
+      <c r="A27" s="52"/>
+      <c r="B27" s="52"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
+      <c r="A28" s="52"/>
+      <c r="B28" s="52"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15.6">
+      <c r="A29" s="52"/>
+      <c r="B29" s="52"/>
+      <c r="C29" s="51" t="s">
+        <v>144</v>
+      </c>
+      <c r="D29" s="51" t="s">
+        <v>121</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="G29" s="48" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="6"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
+      <c r="A30" s="52"/>
+      <c r="B30" s="52"/>
+      <c r="C30" s="52"/>
+      <c r="D30" s="52"/>
+      <c r="E30" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="F30" s="49" t="s">
+        <v>118</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="6"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
+      <c r="A31" s="52"/>
+      <c r="B31" s="52"/>
+      <c r="C31" s="52"/>
+      <c r="D31" s="52"/>
+      <c r="E31" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="6"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
+      <c r="A32" s="52"/>
+      <c r="B32" s="52"/>
+      <c r="C32" s="52"/>
+      <c r="D32" s="52"/>
+      <c r="E32" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="6"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
+      <c r="A33" s="53"/>
+      <c r="B33" s="53"/>
+      <c r="C33" s="53"/>
+      <c r="D33" s="53"/>
+      <c r="E33" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="1"/>
@@ -1898,19 +2083,23 @@
       <c r="E57" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="16">
+    <mergeCell ref="A20:A33"/>
+    <mergeCell ref="B20:B33"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="D29:D33"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="B2:B8"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
     <mergeCell ref="A9:A19"/>
     <mergeCell ref="B9:B19"/>
     <mergeCell ref="C13:C14"/>
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="C15:C19"/>
     <mergeCell ref="D15:D19"/>
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="B2:B8"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1960,16 +2149,16 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" thickTop="1">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="55" t="s">
+      <c r="C2" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="58" t="s">
+      <c r="D2" s="66" t="s">
         <v>39</v>
       </c>
       <c r="E2" s="15" t="s">
@@ -1983,10 +2172,10 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" customHeight="1">
-      <c r="A3" s="52"/>
-      <c r="B3" s="54"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="59"/>
+      <c r="A3" s="60"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="67"/>
       <c r="E3" s="9" t="s">
         <v>42</v>
       </c>
@@ -1998,10 +2187,10 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="15" customHeight="1">
-      <c r="A4" s="52"/>
-      <c r="B4" s="54"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="60"/>
+      <c r="A4" s="60"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="68"/>
       <c r="E4" s="9" t="s">
         <v>44</v>
       </c>
@@ -2013,8 +2202,8 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1">
-      <c r="A5" s="52"/>
-      <c r="B5" s="54"/>
+      <c r="A5" s="60"/>
+      <c r="B5" s="62"/>
       <c r="C5" s="4" t="s">
         <v>47</v>
       </c>
@@ -2146,7 +2335,7 @@
       <c r="D18" s="35"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
-      <c r="G18" s="47"/>
+      <c r="G18" s="55"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="32"/>
@@ -2155,7 +2344,7 @@
       <c r="D19" s="37"/>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
-      <c r="G19" s="48"/>
+      <c r="G19" s="56"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="32"/>
@@ -2164,7 +2353,7 @@
       <c r="D20" s="37"/>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
-      <c r="G20" s="49"/>
+      <c r="G20" s="57"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="32"/>
@@ -2173,7 +2362,7 @@
       <c r="D21" s="37"/>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
-      <c r="G21" s="50"/>
+      <c r="G21" s="58"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="32"/>
@@ -2338,10 +2527,10 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="51" t="s">
         <v>15</v>
       </c>
       <c r="C2" s="23" t="s">
@@ -2361,8 +2550,8 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="62"/>
-      <c r="B3" s="62"/>
+      <c r="A3" s="52"/>
+      <c r="B3" s="52"/>
       <c r="C3" s="19" t="s">
         <v>11</v>
       </c>
@@ -2380,8 +2569,8 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="63"/>
-      <c r="B4" s="63"/>
+      <c r="A4" s="53"/>
+      <c r="B4" s="53"/>
       <c r="C4" s="27" t="s">
         <v>25</v>
       </c>
@@ -2712,16 +2901,16 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.6">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="61" t="s">
+      <c r="C2" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="61" t="s">
+      <c r="D2" s="51" t="s">
         <v>32</v>
       </c>
       <c r="E2" s="17" t="s">
@@ -2735,10 +2924,10 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="62"/>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
+      <c r="A3" s="52"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
       <c r="E3" s="17" t="s">
         <v>35</v>
       </c>
@@ -2750,8 +2939,8 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="62"/>
-      <c r="B4" s="62"/>
+      <c r="A4" s="52"/>
+      <c r="B4" s="52"/>
       <c r="C4" s="29"/>
       <c r="D4" s="30"/>
       <c r="E4" s="18" t="s">
@@ -2765,8 +2954,8 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="63"/>
-      <c r="B5" s="63"/>
+      <c r="A5" s="53"/>
+      <c r="B5" s="53"/>
       <c r="C5" s="27"/>
       <c r="D5" s="27"/>
     </row>
@@ -3076,16 +3265,16 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="61" t="s">
+      <c r="C2" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="D2" s="61" t="s">
+      <c r="D2" s="51" t="s">
         <v>48</v>
       </c>
       <c r="E2" s="17" t="s">
@@ -3099,10 +3288,10 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="62"/>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
+      <c r="A3" s="52"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
       <c r="E3" s="7" t="s">
         <v>57</v>
       </c>
@@ -3114,10 +3303,10 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="62"/>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
+      <c r="A4" s="52"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
       <c r="E4" s="17" t="s">
         <v>59</v>
       </c>
@@ -3129,10 +3318,10 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="62"/>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
+      <c r="A5" s="52"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
       <c r="E5" s="17" t="s">
         <v>62</v>
       </c>
@@ -3144,10 +3333,10 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="62"/>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
+      <c r="A6" s="52"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
       <c r="E6" s="7" t="s">
         <v>64</v>
       </c>
@@ -3159,16 +3348,16 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="62" t="s">
+      <c r="A7" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="62" t="s">
+      <c r="B7" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="61" t="s">
+      <c r="C7" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="D7" s="61" t="s">
+      <c r="D7" s="51" t="s">
         <v>69</v>
       </c>
       <c r="E7" s="7" t="s">
@@ -3182,10 +3371,10 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="62"/>
-      <c r="B8" s="62"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
+      <c r="A8" s="52"/>
+      <c r="B8" s="52"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
       <c r="E8" s="17" t="s">
         <v>73</v>
       </c>
@@ -3197,10 +3386,10 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="62"/>
-      <c r="B9" s="62"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
+      <c r="A9" s="52"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
       <c r="E9" s="17" t="s">
         <v>76</v>
       </c>
@@ -3212,8 +3401,8 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="62"/>
-      <c r="B10" s="62"/>
+      <c r="A10" s="52"/>
+      <c r="B10" s="52"/>
       <c r="C10" s="43" t="s">
         <v>79</v>
       </c>
@@ -3231,16 +3420,16 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="64" t="s">
+      <c r="A11" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="B11" s="64" t="s">
+      <c r="B11" s="54" t="s">
         <v>85</v>
       </c>
-      <c r="C11" s="64" t="s">
+      <c r="C11" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="64" t="s">
+      <c r="D11" s="54" t="s">
         <v>86</v>
       </c>
       <c r="E11" s="17" t="s">
@@ -3254,10 +3443,10 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="64"/>
-      <c r="B12" s="64"/>
-      <c r="C12" s="64"/>
-      <c r="D12" s="64"/>
+      <c r="A12" s="54"/>
+      <c r="B12" s="54"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
       <c r="E12" s="17" t="s">
         <v>59</v>
       </c>

--- a/Atividade 2 - Lista de variáveis_A.xlsx
+++ b/Atividade 2 - Lista de variáveis_A.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="15156" windowHeight="7992"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="15156" windowHeight="7992" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="View" sheetId="7" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="182">
   <si>
     <t>Class</t>
   </si>
@@ -469,6 +469,102 @@
   </si>
   <si>
     <t>//Utilizes for invoke the data for result</t>
+  </si>
+  <si>
+    <t>Cliente</t>
+  </si>
+  <si>
+    <t>Client</t>
+  </si>
+  <si>
+    <t>Menu</t>
+  </si>
+  <si>
+    <t>opcaocliente</t>
+  </si>
+  <si>
+    <t>selectMenuOption</t>
+  </si>
+  <si>
+    <t>//Receives the option for the menu</t>
+  </si>
+  <si>
+    <t>nomes</t>
+  </si>
+  <si>
+    <t>nameArray</t>
+  </si>
+  <si>
+    <t>//Variable of name for ArrayList</t>
+  </si>
+  <si>
+    <t>sexos</t>
+  </si>
+  <si>
+    <t>genderArray</t>
+  </si>
+  <si>
+    <t>//Variable of gender for ArrayList</t>
+  </si>
+  <si>
+    <t>enderecos</t>
+  </si>
+  <si>
+    <t>addressArray</t>
+  </si>
+  <si>
+    <t>//Variable of address for ArrayList</t>
+  </si>
+  <si>
+    <t>CEPs</t>
+  </si>
+  <si>
+    <t>cepArray</t>
+  </si>
+  <si>
+    <t>//Variable of cep for ArrayList</t>
+  </si>
+  <si>
+    <t>Data_nascimentos</t>
+  </si>
+  <si>
+    <t>dtBirthArray</t>
+  </si>
+  <si>
+    <t>//Variable of data of birth for ArrayList</t>
+  </si>
+  <si>
+    <t>filiacaos</t>
+  </si>
+  <si>
+    <t>membershipArray</t>
+  </si>
+  <si>
+    <t>//Variable of membership for ArrayList</t>
+  </si>
+  <si>
+    <t>telefones</t>
+  </si>
+  <si>
+    <t>phoneArray</t>
+  </si>
+  <si>
+    <t>logins</t>
+  </si>
+  <si>
+    <t>loginArray</t>
+  </si>
+  <si>
+    <t>senhas</t>
+  </si>
+  <si>
+    <t>passwordArrray</t>
+  </si>
+  <si>
+    <t>//Used for whiles</t>
+  </si>
+  <si>
+    <t>j</t>
   </si>
 </sst>
 </file>
@@ -518,7 +614,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -654,17 +750,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="3"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -881,11 +966,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -908,11 +1013,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -935,7 +1037,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -949,119 +1051,132 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1364,7 +1479,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A20" sqref="A20:G33"/>
     </sheetView>
   </sheetViews>
@@ -1380,37 +1495,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="G1" s="23" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="51" t="s">
         <v>87</v>
       </c>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="51" t="s">
         <v>88</v>
       </c>
       <c r="C2" s="7"/>
-      <c r="D2" s="46"/>
+      <c r="D2" s="43"/>
       <c r="E2" s="7" t="s">
         <v>89</v>
       </c>
@@ -1422,14 +1537,14 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="54"/>
-      <c r="B3" s="54"/>
-      <c r="C3" s="46"/>
+      <c r="A3" s="51"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="43"/>
       <c r="D3" s="7"/>
       <c r="E3" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="F3" s="46" t="s">
+      <c r="F3" s="43" t="s">
         <v>48</v>
       </c>
       <c r="G3" s="7" t="s">
@@ -1437,15 +1552,15 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="54"/>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54" t="s">
+      <c r="A4" s="51"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51" t="s">
         <v>92</v>
       </c>
-      <c r="D4" s="54" t="s">
+      <c r="D4" s="51" t="s">
         <v>93</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="14" t="s">
         <v>94</v>
       </c>
       <c r="F4" s="7" t="s">
@@ -1456,26 +1571,26 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.6">
-      <c r="A5" s="54"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="17" t="s">
+      <c r="A5" s="51"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="48" t="s">
+      <c r="G5" s="45" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="54"/>
-      <c r="B6" s="54"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="46" t="s">
+      <c r="A6" s="51"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="43" t="s">
         <v>97</v>
       </c>
       <c r="F6" s="7" t="s">
@@ -1486,18 +1601,18 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="54"/>
-      <c r="B7" s="54"/>
-      <c r="C7" s="54" t="s">
+      <c r="A7" s="51"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="D7" s="54" t="s">
+      <c r="D7" s="51" t="s">
         <v>95</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="49" t="s">
+      <c r="F7" s="46" t="s">
         <v>101</v>
       </c>
       <c r="G7" s="7" t="s">
@@ -1505,11 +1620,11 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="54"/>
-      <c r="B8" s="54"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="46" t="s">
+      <c r="A8" s="51"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="43" t="s">
         <v>103</v>
       </c>
       <c r="F8" s="7" t="s">
@@ -1520,15 +1635,15 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="51" t="s">
+      <c r="A9" s="48" t="s">
         <v>106</v>
       </c>
-      <c r="B9" s="51" t="s">
+      <c r="B9" s="48" t="s">
         <v>107</v>
       </c>
-      <c r="C9" s="45"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="50" t="s">
+      <c r="C9" s="42"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="47" t="s">
         <v>89</v>
       </c>
       <c r="F9" s="7" t="s">
@@ -1539,11 +1654,11 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="52"/>
-      <c r="B10" s="52"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17" t="s">
+      <c r="A10" s="49"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14" t="s">
         <v>108</v>
       </c>
       <c r="F10" s="7" t="s">
@@ -1554,11 +1669,11 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="52"/>
-      <c r="B11" s="52"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17" t="s">
+      <c r="A11" s="49"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14" t="s">
         <v>49</v>
       </c>
       <c r="F11" s="7" t="s">
@@ -1569,11 +1684,11 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="52"/>
-      <c r="B12" s="52"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17" t="s">
+      <c r="A12" s="49"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14" t="s">
         <v>94</v>
       </c>
       <c r="F12" s="7" t="s">
@@ -1584,15 +1699,15 @@
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="52"/>
-      <c r="B13" s="52"/>
-      <c r="C13" s="51" t="s">
+      <c r="A13" s="49"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="D13" s="51" t="s">
+      <c r="D13" s="48" t="s">
         <v>95</v>
       </c>
-      <c r="E13" s="17" t="s">
+      <c r="E13" s="14" t="s">
         <v>97</v>
       </c>
       <c r="F13" s="7" t="s">
@@ -1603,33 +1718,33 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="15.6">
-      <c r="A14" s="52"/>
-      <c r="B14" s="52"/>
-      <c r="C14" s="53"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="17" t="s">
+      <c r="A14" s="49"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="18" t="s">
+      <c r="F14" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="G14" s="48" t="s">
+      <c r="G14" s="45" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="52"/>
-      <c r="B15" s="52"/>
-      <c r="C15" s="51" t="s">
+      <c r="A15" s="49"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="48" t="s">
         <v>100</v>
       </c>
-      <c r="D15" s="51" t="s">
+      <c r="D15" s="48" t="s">
         <v>95</v>
       </c>
-      <c r="E15" s="17" t="s">
+      <c r="E15" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F15" s="49" t="s">
+      <c r="F15" s="46" t="s">
         <v>101</v>
       </c>
       <c r="G15" s="7" t="s">
@@ -1637,14 +1752,14 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="52"/>
-      <c r="B16" s="52"/>
-      <c r="C16" s="52"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="17" t="s">
+      <c r="A16" s="49"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="F16" s="49" t="s">
+      <c r="F16" s="46" t="s">
         <v>113</v>
       </c>
       <c r="G16" s="7" t="s">
@@ -1652,14 +1767,14 @@
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="52"/>
-      <c r="B17" s="52"/>
-      <c r="C17" s="52"/>
-      <c r="D17" s="52"/>
-      <c r="E17" s="17" t="s">
+      <c r="A17" s="49"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="F17" s="49" t="s">
+      <c r="F17" s="46" t="s">
         <v>116</v>
       </c>
       <c r="G17" s="7" t="s">
@@ -1667,14 +1782,14 @@
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="52"/>
-      <c r="B18" s="52"/>
-      <c r="C18" s="52"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="17" t="s">
+      <c r="A18" s="49"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="F18" s="49" t="s">
+      <c r="F18" s="46" t="s">
         <v>118</v>
       </c>
       <c r="G18" s="7" t="s">
@@ -1682,11 +1797,11 @@
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="53"/>
-      <c r="B19" s="53"/>
-      <c r="C19" s="53"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="17" t="s">
+      <c r="A19" s="50"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="14" t="s">
         <v>103</v>
       </c>
       <c r="F19" s="7" t="s">
@@ -1697,15 +1812,15 @@
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="51" t="s">
+      <c r="A20" s="48" t="s">
         <v>120</v>
       </c>
-      <c r="B20" s="51" t="s">
+      <c r="B20" s="48" t="s">
         <v>121</v>
       </c>
-      <c r="C20" s="47"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17" t="s">
+      <c r="C20" s="44"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14" t="s">
         <v>89</v>
       </c>
       <c r="F20" s="7" t="s">
@@ -1716,11 +1831,11 @@
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="52"/>
-      <c r="B21" s="52"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17" t="s">
+      <c r="A21" s="49"/>
+      <c r="B21" s="49"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14" t="s">
         <v>122</v>
       </c>
       <c r="F21" s="7" t="s">
@@ -1731,11 +1846,11 @@
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="52"/>
-      <c r="B22" s="52"/>
-      <c r="C22" s="47"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17" t="s">
+      <c r="A22" s="49"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14" t="s">
         <v>125</v>
       </c>
       <c r="F22" s="7" t="s">
@@ -1746,11 +1861,11 @@
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="52"/>
-      <c r="B23" s="52"/>
-      <c r="C23" s="47"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17" t="s">
+      <c r="A23" s="49"/>
+      <c r="B23" s="49"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14" t="s">
         <v>128</v>
       </c>
       <c r="F23" s="7" t="s">
@@ -1761,11 +1876,11 @@
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="52"/>
-      <c r="B24" s="52"/>
-      <c r="C24" s="47"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17" t="s">
+      <c r="A24" s="49"/>
+      <c r="B24" s="49"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14" t="s">
         <v>131</v>
       </c>
       <c r="F24" s="7" t="s">
@@ -1776,11 +1891,11 @@
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="52"/>
-      <c r="B25" s="52"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17" t="s">
+      <c r="A25" s="49"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14" t="s">
         <v>134</v>
       </c>
       <c r="F25" s="7" t="s">
@@ -1791,11 +1906,11 @@
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="52"/>
-      <c r="B26" s="52"/>
-      <c r="C26" s="47"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17" t="s">
+      <c r="A26" s="49"/>
+      <c r="B26" s="49"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14" t="s">
         <v>137</v>
       </c>
       <c r="F26" s="7" t="s">
@@ -1806,11 +1921,11 @@
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="52"/>
-      <c r="B27" s="52"/>
-      <c r="C27" s="47"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17" t="s">
+      <c r="A27" s="49"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="44"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14" t="s">
         <v>139</v>
       </c>
       <c r="F27" s="7" t="s">
@@ -1821,11 +1936,11 @@
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="52"/>
-      <c r="B28" s="52"/>
-      <c r="C28" s="47"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17" t="s">
+      <c r="A28" s="49"/>
+      <c r="B28" s="49"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14" t="s">
         <v>142</v>
       </c>
       <c r="F28" s="7" t="s">
@@ -1836,33 +1951,33 @@
       </c>
     </row>
     <row r="29" spans="1:7" ht="15.6">
-      <c r="A29" s="52"/>
-      <c r="B29" s="52"/>
-      <c r="C29" s="51" t="s">
+      <c r="A29" s="49"/>
+      <c r="B29" s="49"/>
+      <c r="C29" s="48" t="s">
         <v>144</v>
       </c>
-      <c r="D29" s="51" t="s">
+      <c r="D29" s="48" t="s">
         <v>121</v>
       </c>
-      <c r="E29" s="17" t="s">
+      <c r="E29" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F29" s="18" t="s">
+      <c r="F29" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="G29" s="48" t="s">
+      <c r="G29" s="45" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="52"/>
-      <c r="B30" s="52"/>
-      <c r="C30" s="52"/>
-      <c r="D30" s="52"/>
-      <c r="E30" s="17" t="s">
+      <c r="A30" s="49"/>
+      <c r="B30" s="49"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="F30" s="49" t="s">
+      <c r="F30" s="46" t="s">
         <v>118</v>
       </c>
       <c r="G30" s="7" t="s">
@@ -1870,11 +1985,11 @@
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="52"/>
-      <c r="B31" s="52"/>
-      <c r="C31" s="52"/>
-      <c r="D31" s="52"/>
-      <c r="E31" s="17" t="s">
+      <c r="A31" s="49"/>
+      <c r="B31" s="49"/>
+      <c r="C31" s="49"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="14" t="s">
         <v>145</v>
       </c>
       <c r="F31" s="7" t="s">
@@ -1885,11 +2000,11 @@
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="52"/>
-      <c r="B32" s="52"/>
-      <c r="C32" s="52"/>
-      <c r="D32" s="52"/>
-      <c r="E32" s="17" t="s">
+      <c r="A32" s="49"/>
+      <c r="B32" s="49"/>
+      <c r="C32" s="49"/>
+      <c r="D32" s="49"/>
+      <c r="E32" s="14" t="s">
         <v>94</v>
       </c>
       <c r="F32" s="7" t="s">
@@ -1900,11 +2015,11 @@
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="53"/>
-      <c r="B33" s="53"/>
-      <c r="C33" s="53"/>
-      <c r="D33" s="53"/>
-      <c r="E33" s="17" t="s">
+      <c r="A33" s="50"/>
+      <c r="B33" s="50"/>
+      <c r="C33" s="50"/>
+      <c r="D33" s="50"/>
+      <c r="E33" s="14" t="s">
         <v>147</v>
       </c>
       <c r="F33" s="7" t="s">
@@ -2110,8 +2225,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G5"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2126,42 +2241,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18.600000000000001" thickBot="1">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="G1" s="23" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" thickTop="1">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="63" t="s">
+      <c r="C2" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="66" t="s">
+      <c r="D2" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="12" t="s">
         <v>40</v>
       </c>
       <c r="F2" s="7" t="s">
@@ -2172,10 +2287,10 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" customHeight="1">
-      <c r="A3" s="60"/>
-      <c r="B3" s="62"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="67"/>
+      <c r="A3" s="57"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="64"/>
       <c r="E3" s="9" t="s">
         <v>42</v>
       </c>
@@ -2187,10 +2302,10 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="15" customHeight="1">
-      <c r="A4" s="60"/>
-      <c r="B4" s="62"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="68"/>
+      <c r="A4" s="57"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="65"/>
       <c r="E4" s="9" t="s">
         <v>44</v>
       </c>
@@ -2202,8 +2317,8 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1">
-      <c r="A5" s="60"/>
-      <c r="B5" s="62"/>
+      <c r="A5" s="57"/>
+      <c r="B5" s="59"/>
       <c r="C5" s="4" t="s">
         <v>47</v>
       </c>
@@ -2221,190 +2336,270 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="15" customHeight="1">
-      <c r="A6" s="32"/>
-      <c r="B6" s="33"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
+      <c r="A6" s="48" t="s">
+        <v>150</v>
+      </c>
+      <c r="B6" s="66" t="s">
+        <v>151</v>
+      </c>
+      <c r="C6" s="48" t="s">
+        <v>152</v>
+      </c>
+      <c r="D6" s="48" t="s">
+        <v>152</v>
+      </c>
+      <c r="E6" s="67" t="s">
+        <v>153</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1">
-      <c r="A7" s="32"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
+      <c r="A7" s="49"/>
+      <c r="B7" s="68"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="67" t="s">
+        <v>156</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="8" spans="1:7" ht="15" customHeight="1">
-      <c r="A8" s="32"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
+      <c r="A8" s="49"/>
+      <c r="B8" s="68"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="67" t="s">
+        <v>159</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="9" spans="1:7" ht="15" customHeight="1">
-      <c r="A9" s="32"/>
-      <c r="B9" s="33"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
+      <c r="A9" s="49"/>
+      <c r="B9" s="68"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="69" t="s">
+        <v>162</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="10" spans="1:7" ht="15" customHeight="1">
-      <c r="A10" s="32"/>
-      <c r="B10" s="33"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
+      <c r="A10" s="49"/>
+      <c r="B10" s="68"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="70" t="s">
+        <v>165</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1">
-      <c r="A11" s="32"/>
-      <c r="B11" s="33"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
+      <c r="A11" s="49"/>
+      <c r="B11" s="68"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="71" t="s">
+        <v>168</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="12" spans="1:7" ht="15" customHeight="1">
-      <c r="A12" s="32"/>
-      <c r="B12" s="33"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
+      <c r="A12" s="49"/>
+      <c r="B12" s="68"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="71" t="s">
+        <v>171</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="13" spans="1:7" ht="15" customHeight="1">
-      <c r="A13" s="32"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
+      <c r="A13" s="49"/>
+      <c r="B13" s="68"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="71" t="s">
+        <v>174</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="14" spans="1:7" ht="15" customHeight="1">
-      <c r="A14" s="32"/>
-      <c r="B14" s="33"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
+      <c r="A14" s="49"/>
+      <c r="B14" s="68"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="67" t="s">
+        <v>176</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="15" spans="1:7" ht="15" customHeight="1">
-      <c r="A15" s="32"/>
-      <c r="B15" s="33"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
+      <c r="A15" s="49"/>
+      <c r="B15" s="68"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="67" t="s">
+        <v>178</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="16" spans="1:7" ht="15" customHeight="1">
-      <c r="A16" s="32"/>
-      <c r="B16" s="33"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
+      <c r="A16" s="49"/>
+      <c r="B16" s="68"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="67" t="s">
+        <v>145</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="17" spans="1:7" ht="15" customHeight="1">
-      <c r="A17" s="32"/>
-      <c r="B17" s="33"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
+      <c r="A17" s="50"/>
+      <c r="B17" s="72"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="67" t="s">
+        <v>181</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="32"/>
-      <c r="B18" s="33"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="35"/>
+      <c r="A18" s="29"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="32"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
-      <c r="G18" s="55"/>
+      <c r="G18" s="52"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="32"/>
-      <c r="B19" s="33"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="37"/>
+      <c r="A19" s="29"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="34"/>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
-      <c r="G19" s="56"/>
+      <c r="G19" s="53"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="32"/>
-      <c r="B20" s="33"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="37"/>
+      <c r="A20" s="29"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="34"/>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
-      <c r="G20" s="57"/>
+      <c r="G20" s="54"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="32"/>
-      <c r="B21" s="33"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="37"/>
+      <c r="A21" s="29"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="34"/>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
-      <c r="G21" s="58"/>
+      <c r="G21" s="55"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="32"/>
-      <c r="B22" s="33"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="37"/>
+      <c r="A22" s="29"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="34"/>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="32"/>
-      <c r="B23" s="33"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="37"/>
+      <c r="A23" s="29"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="34"/>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="32"/>
-      <c r="B24" s="33"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="37"/>
+      <c r="A24" s="29"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="34"/>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="32"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="36"/>
-      <c r="D25" s="37"/>
+      <c r="A25" s="29"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="34"/>
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="38"/>
-      <c r="B26" s="39"/>
-      <c r="C26" s="40"/>
-      <c r="D26" s="41"/>
+      <c r="A26" s="35"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="38"/>
       <c r="E26" s="7"/>
       <c r="G26" s="7"/>
     </row>
@@ -2414,7 +2609,7 @@
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="9"/>
-      <c r="F27" s="13"/>
+      <c r="F27" s="10"/>
       <c r="G27" s="7"/>
     </row>
     <row r="28" spans="1:7">
@@ -2424,7 +2619,7 @@
       <c r="D28" s="4"/>
       <c r="E28" s="9"/>
       <c r="F28" s="7"/>
-      <c r="G28" s="14"/>
+      <c r="G28" s="11"/>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="3"/>
@@ -2433,7 +2628,7 @@
       <c r="D29" s="4"/>
       <c r="E29" s="9"/>
       <c r="F29" s="7"/>
-      <c r="G29" s="14"/>
+      <c r="G29" s="11"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="3"/>
@@ -2442,7 +2637,7 @@
       <c r="D30" s="4"/>
       <c r="E30" s="9"/>
       <c r="F30" s="7"/>
-      <c r="G30" s="14"/>
+      <c r="G30" s="11"/>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="3"/>
@@ -2451,7 +2646,7 @@
       <c r="D31" s="4"/>
       <c r="E31" s="5"/>
       <c r="F31" s="7"/>
-      <c r="G31" s="14"/>
+      <c r="G31" s="11"/>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="3"/>
@@ -2472,13 +2667,17 @@
       <c r="G33" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="10">
     <mergeCell ref="G18:G19"/>
     <mergeCell ref="G20:G21"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="C2:C4"/>
     <mergeCell ref="D2:D4"/>
+    <mergeCell ref="A6:A17"/>
+    <mergeCell ref="B6:B17"/>
+    <mergeCell ref="C6:C17"/>
+    <mergeCell ref="D6:D17"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -2494,55 +2693,55 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="40.44140625" style="25" customWidth="1"/>
-    <col min="2" max="2" width="39.5546875" style="25" customWidth="1"/>
-    <col min="3" max="3" width="29.88671875" style="25" customWidth="1"/>
-    <col min="4" max="4" width="36.109375" style="25" customWidth="1"/>
-    <col min="5" max="5" width="33.6640625" style="25" customWidth="1"/>
-    <col min="6" max="6" width="29.6640625" style="25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.77734375" style="25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.44140625" style="22" customWidth="1"/>
+    <col min="2" max="2" width="39.5546875" style="22" customWidth="1"/>
+    <col min="3" max="3" width="29.88671875" style="22" customWidth="1"/>
+    <col min="4" max="4" width="36.109375" style="22" customWidth="1"/>
+    <col min="5" max="5" width="33.6640625" style="22" customWidth="1"/>
+    <col min="6" max="6" width="29.6640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.77734375" style="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="G1" s="23" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="21" t="s">
         <v>19</v>
       </c>
       <c r="G2" s="7" t="s">
@@ -2550,18 +2749,18 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="52"/>
-      <c r="B3" s="52"/>
-      <c r="C3" s="19" t="s">
+      <c r="A3" s="49"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="F3" s="21" t="s">
         <v>18</v>
       </c>
       <c r="G3" s="7" t="s">
@@ -2569,15 +2768,15 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="53"/>
-      <c r="B4" s="53"/>
-      <c r="C4" s="27" t="s">
+      <c r="A4" s="50"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="14" t="s">
         <v>21</v>
       </c>
       <c r="F4" s="7" t="s">
@@ -2588,265 +2787,265 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="22"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
+      <c r="A5" s="19"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="22"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
+      <c r="A6" s="19"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="22"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
+      <c r="A7" s="19"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="22"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
+      <c r="A8" s="19"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="22"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
+      <c r="A9" s="19"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="22"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
+      <c r="A10" s="19"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="22"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
+      <c r="A11" s="19"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="22"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
+      <c r="A12" s="19"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="22"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
+      <c r="A13" s="19"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="22"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
+      <c r="A14" s="19"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="22"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
+      <c r="A15" s="19"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="22"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
+      <c r="A16" s="19"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="22"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
+      <c r="A17" s="19"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="22"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
+      <c r="A18" s="19"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="22"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
+      <c r="A19" s="19"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="22"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
+      <c r="A20" s="19"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="22"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
+      <c r="A21" s="19"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="22"/>
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
+      <c r="A22" s="19"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="22"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
+      <c r="A23" s="19"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="22"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
+      <c r="A24" s="19"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="22"/>
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
+      <c r="A25" s="19"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="22"/>
-      <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="22"/>
+      <c r="A26" s="19"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="22"/>
-      <c r="B27" s="22"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="22"/>
+      <c r="A27" s="19"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="22"/>
-      <c r="B28" s="22"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="22"/>
+      <c r="A28" s="19"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="22"/>
-      <c r="B29" s="22"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
+      <c r="A29" s="19"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="22"/>
-      <c r="B30" s="22"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="22"/>
+      <c r="A30" s="19"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="22"/>
-      <c r="B31" s="22"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="22"/>
+      <c r="A31" s="19"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="22"/>
-      <c r="B32" s="22"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="22"/>
+      <c r="A32" s="19"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="22"/>
-      <c r="B33" s="22"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="22"/>
+      <c r="A33" s="19"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2878,57 +3077,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="G1" s="23" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.6">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="51" t="s">
+      <c r="D2" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="28" t="s">
+      <c r="G2" s="25" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="52"/>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="17" t="s">
+      <c r="A3" s="49"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="14" t="s">
         <v>35</v>
       </c>
       <c r="F3" s="7" t="s">
@@ -2939,11 +3138,11 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="52"/>
-      <c r="B4" s="52"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="18" t="s">
+      <c r="A4" s="49"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="15" t="s">
         <v>8</v>
       </c>
       <c r="F4" s="7" t="s">
@@ -2954,10 +3153,10 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="53"/>
-      <c r="B5" s="53"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
+      <c r="A5" s="50"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="6"/>
@@ -3265,22 +3464,22 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="D2" s="51" t="s">
+      <c r="D2" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="14" t="s">
         <v>55</v>
       </c>
       <c r="G2" s="7" t="s">
@@ -3288,10 +3487,10 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="52"/>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
+      <c r="A3" s="49"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
       <c r="E3" s="7" t="s">
         <v>57</v>
       </c>
@@ -3303,11 +3502,11 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="52"/>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="17" t="s">
+      <c r="A4" s="49"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="14" t="s">
         <v>59</v>
       </c>
       <c r="F4" s="7" t="s">
@@ -3318,11 +3517,11 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="52"/>
-      <c r="B5" s="52"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="17" t="s">
+      <c r="A5" s="49"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="14" t="s">
         <v>62</v>
       </c>
       <c r="F5" s="7" t="s">
@@ -3333,10 +3532,10 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="52"/>
-      <c r="B6" s="52"/>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
+      <c r="A6" s="49"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
       <c r="E6" s="7" t="s">
         <v>64</v>
       </c>
@@ -3348,16 +3547,16 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="52" t="s">
+      <c r="A7" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="52" t="s">
+      <c r="B7" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="51" t="s">
+      <c r="C7" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="D7" s="51" t="s">
+      <c r="D7" s="48" t="s">
         <v>69</v>
       </c>
       <c r="E7" s="7" t="s">
@@ -3371,11 +3570,11 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="52"/>
-      <c r="B8" s="52"/>
-      <c r="C8" s="52"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="17" t="s">
+      <c r="A8" s="49"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="14" t="s">
         <v>73</v>
       </c>
       <c r="F8" s="7" t="s">
@@ -3386,11 +3585,11 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="52"/>
-      <c r="B9" s="52"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="17" t="s">
+      <c r="A9" s="49"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="14" t="s">
         <v>76</v>
       </c>
       <c r="F9" s="7" t="s">
@@ -3401,41 +3600,41 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="52"/>
-      <c r="B10" s="52"/>
-      <c r="C10" s="43" t="s">
+      <c r="A10" s="49"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="D10" s="43" t="s">
+      <c r="D10" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="F10" s="20" t="s">
+      <c r="F10" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="G10" s="20" t="s">
+      <c r="G10" s="17" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="54" t="s">
+      <c r="A11" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="B11" s="54" t="s">
+      <c r="B11" s="51" t="s">
         <v>85</v>
       </c>
-      <c r="C11" s="54" t="s">
+      <c r="C11" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="54" t="s">
+      <c r="D11" s="51" t="s">
         <v>86</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="E11" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="F11" s="17" t="s">
+      <c r="F11" s="14" t="s">
         <v>55</v>
       </c>
       <c r="G11" s="7" t="s">
@@ -3443,11 +3642,11 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="54"/>
-      <c r="B12" s="54"/>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="17" t="s">
+      <c r="A12" s="51"/>
+      <c r="B12" s="51"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="14" t="s">
         <v>59</v>
       </c>
       <c r="F12" s="7" t="s">
@@ -3458,78 +3657,78 @@
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="43"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="17"/>
+      <c r="A13" s="40"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="14"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="43"/>
-      <c r="B14" s="43"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
+      <c r="A14" s="40"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="43"/>
-      <c r="B15" s="43"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="17"/>
+      <c r="A15" s="40"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="14"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="43"/>
-      <c r="B16" s="43"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
+      <c r="A16" s="40"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="29"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="17"/>
+      <c r="A17" s="26"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="14"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="42"/>
-      <c r="B18" s="42"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="24"/>
+      <c r="A18" s="39"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="21"/>
       <c r="G18" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="43"/>
-      <c r="B19" s="43"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="24"/>
+      <c r="A19" s="40"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="21"/>
       <c r="G19" s="7" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="29"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="17"/>
+      <c r="A20" s="26"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="14"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7" t="s">
         <v>23</v>
@@ -3689,25 +3888,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="G1" s="23" t="s">
         <v>3</v>
       </c>
     </row>
